--- a/PROCESS FLOW.xlsx
+++ b/PROCESS FLOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airselangor-my.sharepoint.com/personal/iqmal_jamaludin_airselangor_com/Documents/Desktop/MANUAL SENGGARAAN PAIP versi 2 (2012)/MANUAL SENGGARAAN PAIP versi 3 (2024)/WORD/EDISI TERHAD/CONTENT/iqmal_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5206" documentId="8_{E4AD2C84-A550-4F35-807F-80C5D7D7963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272F1BDD-4340-49D3-A66F-A6633BE724D1}"/>
+  <xr:revisionPtr revIDLastSave="5282" documentId="8_{E4AD2C84-A550-4F35-807F-80C5D7D7963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8703B2ED-7C22-47AE-A5C1-FC5AA649F841}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="737" activeTab="4" xr2:uid="{C719F92E-BDF6-46C7-BEA2-AB8253240474}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="737" firstSheet="5" activeTab="7" xr2:uid="{C719F92E-BDF6-46C7-BEA2-AB8253240474}"/>
   </bookViews>
   <sheets>
     <sheet name="FLOW A" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="15">General!$A$2:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Overview!$A$1:$K$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,15 +63,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="211">
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN PAIP PECAH</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
   <si>
     <t>PROSES</t>
+  </si>
+  <si>
+    <t>JENIS ARAHAN KERJA</t>
   </si>
   <si>
     <t>TINDAKAN OLEH</t>
   </si>
   <si>
+    <t>SISTEM DIGUNAKAN</t>
+  </si>
+  <si>
     <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <r>
@@ -90,37 +105,171 @@
     </r>
   </si>
   <si>
-    <t>Kontraktor</t>
-  </si>
-  <si>
-    <t>Customer Experience Department (CXD) HQ</t>
-  </si>
-  <si>
-    <t>Juruteknik</t>
+    <t>Saluran Aduan Rasmi Air Selangor</t>
   </si>
   <si>
     <t>Work Scheduling Function Unit (Dispatcher)</t>
   </si>
   <si>
-    <t>SISTEM DIGUNAKAN</t>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <r>
+      <t>Berdasarkan semakan pada "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" dan "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" aduan, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dispatcher </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">akan membuat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pilihan jenis arahan kerja </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yang diperlukan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aduan LI/LS yang memerlukan Pengesahan Tapak oleh krew, sila rujuk Azlan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pengesahan Tapak</t>
+  </si>
+  <si>
+    <t>Krew</t>
   </si>
   <si>
     <t>Field Service Application</t>
   </si>
   <si>
-    <t>Whatsapp</t>
+    <t>Semasa membuat semakan tapak, krew akan membuat penilaian samada kerja pembaikan boleh dilakukan oleh beliau (In-house) atau lantikan kontraktor diperlukan.</t>
   </si>
   <si>
-    <t>Saluran Aduan Rasmi Air Selangor</t>
+    <t>Kerja Pembaikan</t>
   </si>
   <si>
-    <t>Krew</t>
+    <t>Sistem secara automatik menjadualkan (schedule) Arahan Kerja. Dispatcher akan mengagihkan (dispatch) Arahan Kerja tersubut.</t>
+  </si>
+  <si>
+    <t>Kontraktor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semasa kerja pembaikan, kawalan injap diperlukan bagi mengurangkan tekanan air didalam paip yang pecah atau penutupan bekalan. Pihak kontraktor akan membuat permohonan kepada </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Associate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wilayah di tapak. Associate berkenaan perlu majukan permohonan kepada Associate NMF wilayah.</t>
+    </r>
   </si>
   <si>
     <t>Call/ Whatsapp</t>
-  </si>
-  <si>
-    <t>Associate Unit Network Maintenance Function</t>
   </si>
   <si>
     <r>
@@ -157,66 +306,8 @@
     </r>
   </si>
   <si>
-    <t>Maklumat tersebut kemudian dimajukan kepada kakitangan CX wilayah yang kemudian memajukan kepada CXD Hq</t>
-  </si>
-  <si>
-    <t>One Screen, Air Selangor Apps &amp; Social Media</t>
-  </si>
-  <si>
-    <t>Kontraktor &amp; Associate/ Juruteknik</t>
-  </si>
-  <si>
-    <t>Kontraktor akan melaksanakan kerja pembaikan seperti yang dirancangan dengan segera dan pada masa yang sama Assocaite/ Juruteknik yang memantau kerja pembaikan akan memaklumkan piahk CX wilayah peratusan kerja pembaikan.
-Pemakluman peratusan kerja pembaikan diteruskan sehingga kerja pembaikan selesai.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Associate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bertanggungjawab membuat senarai kawasan terlibat, menyatakan tarikh &amp; masa mula gangguan dan tarikh &amp; masa jangkaan gangguan tamat.</t>
-    </r>
-  </si>
-  <si>
-    <t>Customer Experience Department (CX) wilayah</t>
-  </si>
-  <si>
-    <t>Selepas mendapat pengesahan bahawa kerja pembaikan paip selesai, injap akan dibuka dengan segera.</t>
-  </si>
-  <si>
-    <t>Sebaik sahaja mendapat Arahan kerja kontraktor akan memulakan kerja pembaikan dengan segera.</t>
-  </si>
-  <si>
-    <t>Pengawalan injap dilakukan oleh Juruteknik yang ditugaskan pada tarikh &amp; masa yang telah ditetapkan. 
-Kawalan injap adalah samaada penutupan sepenuhnya atau sebahagian.</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Semasa membuat semakan tapak, krew akan membuat penilaian samada kerja pembaikan boleh dilakukan oleh beliau (In-house) atau lantikan kontraktor diperlukan.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Paip pecah menyebabkan status ERP Kuning atau ERP Merah diaktifkan, sila rujuk pihak </t>
+      <t xml:space="preserve">Kelulusan dan perincian arahan pengawalan injap diperoleh daripada Associate &amp; Juruteknik </t>
     </r>
     <r>
       <rPr>
@@ -227,17 +318,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Strategic Monitoring &amp; Emergency Response Plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>untuk tindakan lanjut.</t>
+      <t>Network Maintenance Function.</t>
     </r>
   </si>
   <si>
@@ -268,6 +349,73 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Paip pecah menyebabkan status ERP Kuning atau ERP Merah diaktifkan, sila rujuk pihak </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Strategic Monitoring &amp; Emergency Response Plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>untuk tindakan lanjut.</t>
+    </r>
+  </si>
+  <si>
+    <t>Associate Unit Network Maintenance Function</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Associate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bertanggungjawab membuat senarai kawasan terlibat, menyatakan tarikh &amp; masa mula gangguan dan tarikh &amp; masa jangkaan gangguan tamat.</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer Experience Department (CX) wilayah</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Maklumat tersebut kemudian dimajukan kepada kakitangan CX wilayah yang kemudian memajukan kepada CXD Hq</t>
+  </si>
+  <si>
+    <t>Customer Experience Department (CXD) HQ</t>
+  </si>
+  <si>
+    <t>One Screen, Air Selangor Apps &amp; Social Media</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Pihak </t>
     </r>
     <r>
@@ -294,10 +442,36 @@
     </r>
   </si>
   <si>
+    <t>Juruteknik Network Maintenance Function Unit</t>
+  </si>
+  <si>
+    <t>Pengawalan injap dilakukan oleh Juruteknik yang ditugaskan pada tarikh &amp; masa yang telah ditetapkan. 
+Kawalan injap adalah samaada penutupan sepenuhnya atau sebahagian.</t>
+  </si>
+  <si>
+    <t>Kontraktor &amp; Associate/ Juruteknik</t>
+  </si>
+  <si>
+    <t>Kontraktor akan melaksanakan kerja pembaikan seperti yang dirancangan dengan segera dan pada masa yang sama Assocaite/ Juruteknik yang memantau kerja pembaikan akan memaklumkan piahk CX wilayah peratusan kerja pembaikan.
+Pemakluman peratusan kerja pembaikan diteruskan sehingga kerja pembaikan selesai.</t>
+  </si>
+  <si>
+    <t>Juruteknik</t>
+  </si>
+  <si>
+    <t>Selepas mendapat pengesahan bahawa kerja pembaikan paip selesai, injap akan dibuka dengan segera.</t>
+  </si>
+  <si>
     <t>Pihak Wilayah berkenaan.</t>
   </si>
   <si>
-    <t>Salesforce</t>
+    <t>Pemakluman kepada pihak Strategic Monitoring secara berkala sehingga pemulihan selesai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arahan Kerja yang ditutup berstatus Cancelled atau Completed </t>
+  </si>
+  <si>
+    <t>Kes ditutup oleh sistem secara automatik dan pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
   </si>
   <si>
     <r>
@@ -334,99 +508,7 @@
     </r>
   </si>
   <si>
-    <t>Pemakluman kepada pihak Strategic Monitoring secara berkala sehingga pemulihan selesai.</t>
-  </si>
-  <si>
-    <t>PROSES BAGI ADUAN TEKANAN RENDAH &amp; TIADA AIR</t>
-  </si>
-  <si>
-    <t>Field Service App</t>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN PAIP PECAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krew perlu tulis No. Meter di ruangan komen dalam Arahan Kerja Site Verification. </t>
-  </si>
-  <si>
-    <t>Berdasarkan No. Meter tersebut, pihak CX wilayah akan kenalpasti &amp; lengkapkan ruangan No. Account dalam kes tersebut. Kemudian pihak CX Wilayah akan ubah status kes dari "Escalate to FSM" menjadi "Escalate to CCS".</t>
-  </si>
-  <si>
-    <t>Sila rujuk SOP atau garispanduan pihak CBS.</t>
-  </si>
-  <si>
-    <t>Krew perlu menerangkan kepada pengadu mengnai punca masalah &amp; tindakan pembetulan yang perlu dilakukan pihak pengadu.</t>
-  </si>
-  <si>
-    <t>Rujuk SOP pihak NCF</t>
-  </si>
-  <si>
-    <t>PROSES C1</t>
-  </si>
-  <si>
     <t>PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP</t>
-  </si>
-  <si>
-    <t>PROSES C2</t>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN TETIANG METER</t>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN PENURAPAN JALAN &amp; KERJA KEMASAN</t>
-  </si>
-  <si>
-    <t>Kes disebabkan pihak lain menyebabkan kerosakan kepada jalan dan kemasan. Kes disebabkan pihak kontraktor Air Selangor, kontraktor berkenaan perlu dilantik semula untuk pembaikan.</t>
-  </si>
-  <si>
-    <t>Operator Pam</t>
-  </si>
-  <si>
-    <t>Pihak AOF</t>
-  </si>
-  <si>
-    <t>Pengadu kebiasaannya ialah pihak AOF.</t>
-  </si>
-  <si>
-    <t>Rujuk SOP Unit Mekanikal &amp; Elektrikal.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kelulusan dan perincian arahan pengawalan injap diperoleh daripada Associate &amp; Juruteknik </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network Maintenance Function.</t>
-    </r>
-  </si>
-  <si>
-    <t>Juruteknik Network Maintenance Function Unit</t>
-  </si>
-  <si>
-    <t>Semakan kolam dan rumah pam yang disyaki bermasalah.</t>
-  </si>
-  <si>
-    <t>Contoh Kerosakan pada meter: Meter bocor, Meter faulty</t>
-  </si>
-  <si>
-    <t>Pengenalpastian jenis kerosakan secara terperinci.</t>
-  </si>
-  <si>
-    <t>Kerosakan infrastruktur adalah seperti masalah terkait bangunan seperti pintu rosak.
- Kerosakan Mekanikal / Elektrikal adalah terkait masalah peralatan dan aset operasi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Operation Function Unit (Dispatcher) </t>
-  </si>
-  <si>
-    <t>Berdasarkan semakan pada "Case Origin" dan "Description" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
   </si>
   <si>
     <r>
@@ -525,9 +607,6 @@
     </r>
   </si>
   <si>
-    <t>Kontraktor / Krew</t>
-  </si>
-  <si>
     <r>
       <t>Dispatcher mengagihkan (</t>
     </r>
@@ -555,13 +634,108 @@
     </r>
   </si>
   <si>
-    <t>Sila rujuk Carta Alir PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP</t>
+    <t>Kerja Pembaikan / Pengesahan Tapak</t>
+  </si>
+  <si>
+    <t>Kontraktor / Krew</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proses kerja pembaikan dilaksanakan oleh krew (jika pembaikan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inhouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) atau kontraktor (jika dilantik).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancelled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> atau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>PROSES BAGI ADUAN TEKANAN RENDAH &amp; TIADA AIR</t>
+  </si>
+  <si>
+    <t>Field Service App</t>
   </si>
   <si>
     <t>Semasa pengesahan tapak, krew perlu mengenalpasti samada aduan adalah sahih.</t>
   </si>
   <si>
     <t>Jika lebih dari 1 premis terjejas, sila rujuk Carta Alir C1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoh masalah sebelum meter: Meter Stand patah, paip tersumbat.
+Contoh masalah selepas meter: Paip bocor, masalah penapis air. </t>
+  </si>
+  <si>
+    <t>Bersemuka/Panggilan Telefon</t>
+  </si>
+  <si>
+    <t>Krew perlu menerangkan kepada pengadu mengnai punca masalah &amp; tindakan pembetulan yang perlu dilakukan pihak pengadu.</t>
+  </si>
+  <si>
+    <t>Sila rujuk Carta Alir PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP</t>
   </si>
   <si>
     <r>
@@ -578,6 +752,104 @@
       </rPr>
       <t>Action By Inhouse, Case Closed, Status Completed.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Krew perlu tulis No. Meter di ruangan komen dalam Arahan Kerja Site Verification. </t>
+  </si>
+  <si>
+    <t>CX Wilayah</t>
+  </si>
+  <si>
+    <t>Berdasarkan No. Meter tersebut, pihak CX wilayah akan kenalpasti &amp; lengkapkan ruangan No. Account dalam kes tersebut. Kemudian pihak CX Wilayah akan ubah status kes dari "Escalate to FSM" menjadi "Escalate to CCS".</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>Customer Cloud Service</t>
+  </si>
+  <si>
+    <t>Sila rujuk SOP atau garispanduan pihak CBS.</t>
+  </si>
+  <si>
+    <r>
+      <t>Dispatcher mengagihkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Arahan Kerja.
+ Sebaik sahaja mendapat Arahan Kerja Pembaikan, kontraktor akan memulakan kerja pembaikan dengan segera.</t>
+    </r>
+  </si>
+  <si>
+    <t>Krew/Kontraktor</t>
+  </si>
+  <si>
+    <t>Maklumat dan gambar-gambar kerja pembaikan dimuat naik dalam sistem Salesforce</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancelled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">atau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed </t>
+    </r>
+  </si>
+  <si>
+    <t>PROSES C1</t>
   </si>
   <si>
     <r>
@@ -638,7 +910,13 @@
     </r>
   </si>
   <si>
+    <t>Rujuk SOP pihak NCF</t>
+  </si>
+  <si>
     <t>Krew perlu menyerahkan kes tersebut kepada pihak AOF.</t>
+  </si>
+  <si>
+    <t>Rujuk Carta Alir C2</t>
   </si>
   <si>
     <r>
@@ -671,6 +949,125 @@
 Jika Paip Bocor ditemui, sila rujuk PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP.</t>
   </si>
   <si>
+    <t>PROSES C2</t>
+  </si>
+  <si>
+    <t>Operator Pam</t>
+  </si>
+  <si>
+    <t>Semakan kolam dan rumah pam yang disyaki bermasalah.</t>
+  </si>
+  <si>
+    <t>Pemakluman secara manual
+Akan datang akan menggunakan Field Service App</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed </t>
+    </r>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN PENURAPAN JALAN &amp; KERJA KEMASAN</t>
+  </si>
+  <si>
+    <t>Orang Awam / Kakitangan</t>
+  </si>
+  <si>
+    <t>Berdasarkan semakan pada "Case Origin" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
+  </si>
+  <si>
+    <t>Kes disebabkan pihak lain menyebabkan kerosakan kepada jalan dan kemasan. Kes disebabkan pihak kontraktor Air Selangor, kontraktor berkenaan perlu dilantik semula untuk pembaikan.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sistem secara automatik menjadualkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) Arahan Kerja. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dispatcher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>akan mengagihkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dispatch) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arahan Kerja tersubut.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sebaik sahaja mendapat Arahan kerja kontraktor akan memulakan kerja pembaikan dengan segera.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Krew perlu membatalkan Arahan Kerja dalam </t>
     </r>
@@ -685,6 +1082,31 @@
       </rPr>
       <t>Field Service Application.</t>
     </r>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN TETIANG METER</t>
+  </si>
+  <si>
+    <t>Berdasarkan semakan pada "Case Origin" dan "Description" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
+  </si>
+  <si>
+    <t>Contoh Kerosakan pada meter: Meter bocor, Meter faulty</t>
+  </si>
+  <si>
+    <t>Krew / Kontraktor</t>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN MASALAH RUMAH PAM &amp; MASALAH KOLAM</t>
+  </si>
+  <si>
+    <t>Pengadu kebiasaannya ialah pihak AOF.</t>
+  </si>
+  <si>
+    <t>Pengenalpastian jenis kerosakan secara terperinci.</t>
+  </si>
+  <si>
+    <t>Kerosakan infrastruktur adalah seperti masalah terkait bangunan seperti pintu rosak.
+ Kerosakan Mekanikal / Elektrikal adalah terkait masalah peralatan dan aset operasi.</t>
   </si>
   <si>
     <r>
@@ -734,16 +1156,47 @@
     </r>
   </si>
   <si>
+    <t>Rujuk SOP Unit Mekanikal &amp; Elektrikal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Operation Function Unit (Dispatcher) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operator Pam perlu membatalkan Arahan Kerja dalam </t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Kerja Pembaikan</t>
+      <t>Field Service Application.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kontraktor / Operator Pam</t>
+  </si>
+  <si>
+    <t>PROSES PERJALANAN KES BAGI PENGESAHAN TAPAK DAN KERJA PEMBAIKAN MENGGUNAKAN SISTEM SALESFORCE, FIELD SERVICE APP</t>
+  </si>
+  <si>
+    <r>
+      <t>Arahan Kerja Pengesahan Tapak dihasilkan dan diagihkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>created and dispatched</t>
     </r>
     <r>
       <rPr>
@@ -753,18 +1206,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> oleh </t>
+      <t xml:space="preserve">) selepas Dispatcher menilai </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kontraktor</t>
+      <t xml:space="preserve">Case Origin </t>
     </r>
     <r>
       <rPr>
@@ -774,18 +1227,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> bergantung kepada </t>
+      <t xml:space="preserve">dan </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sub-kategori kes yang memerlukan khidmat kontraktor</t>
+      <t>Description</t>
     </r>
     <r>
       <rPr>
@@ -795,71 +1248,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. Untuk </t>
+      <t xml:space="preserve"> aduan.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>perincian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mengikut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sub-kategori kes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, sila rujuk </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>carta alir berkaitan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+  </si>
+  <si>
+    <t>Krew mempunyai beberapa pilihan setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
   </si>
   <si>
     <t>Kerosakan memerlukan tindakan seksyen lain: Billing, Enforcement, Water Quality, Meter, Credit Control, Asset Operation, Mechanical &amp; Electrical, Network Controller Function, NRW, Others (please specify)</t>
@@ -868,13 +1261,13 @@
     <t>Dilakukan jika aduan pengadu disalurkan kepada wilayah Air Selangor yang salah. Setelah dilakukan, Salesforce secara automatik memindahkan aduan itu kepada wilayah yang dipilih dan wilayah tersebut bertanggungjawab menguruskan aduan itu segera.</t>
   </si>
   <si>
+    <t>Krew perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
+  </si>
+  <si>
     <t>Krew menolak Arahan Kerja kerana: Halangan di tapak, Pengesahan perlu dilakukan pada waktu lain, Tukar Zon, Tamat Waktu Kerja, Cuti Kecemasan, Cuti Sakit, Tiada kerjasama daripada pengadu/pemilik premis, Pengadu gagal dihubungi, Tidak dibenarkan melakukan pengesahan tapak, Tekanan bekalan air normal, Alamat/No. telefon pengadu salah/tidak lengkap.</t>
   </si>
   <si>
     <t>Krew membatalkan Arahan Kerja kerana: Masalah dalaman, Telah diselesaikan pengadu, Aduan tak sahih, Bekalan air telah pulih, Dalam proses pemulihan, Bukan air terawat, Gangguan bekalan air berjadual, Pembaikan paip pecah/bocor, Bawah tanggungjawab pemaju/JMB, Dalam tempoh DLP, Masalah loji/rumah pam.</t>
-  </si>
-  <si>
-    <t>Krew perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
   </si>
   <si>
     <r>
@@ -903,54 +1296,11 @@
     </r>
   </si>
   <si>
-    <t>Krew mempunyai beberapa pilihan setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
-  </si>
-  <si>
     <t>Krew mempunyai beberapa pilihan setelah tiba di tapak.</t>
   </si>
   <si>
-    <t>Krew  menjalankan proses pengesahan tapak.</t>
-  </si>
-  <si>
-    <t>Kontraktor perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pembaikan diagihkan.</t>
-  </si>
-  <si>
-    <t>Kontraktor perlu tiba di tapak selewatnya 60 minit. 
-Kontraktor mempunyai beberapa pilihan setelah tiba di tapak.</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Salesforce</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> akan agihkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dispatch</t>
+      <t xml:space="preserve">Setiba di tapak, krew boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
     </r>
     <r>
       <rPr>
@@ -961,7 +1311,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve">Change Section / Change Region / Decline / Cancel </t>
     </r>
     <r>
       <rPr>
@@ -971,18 +1321,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Arahan Kerja tersebut. 
+Jika tiada, krew memilih pilihan </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Arahan Kerja Pembaikan kepada kontraktor dilantik setelah maklumat Pihak Berkuasa Tempatan diisi </t>
+      <t>Valid</t>
     </r>
     <r>
       <rPr>
@@ -992,17 +1343,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dalam ruangan sistem Salesforce.</t>
+      <t xml:space="preserve"> bagi Arahan Kerja Pengesahan Tapak tersebut.</t>
     </r>
   </si>
   <si>
-    <t>Kontraktor mempunyai beberapa pilihan setelah Arahan Kerja Pembaikan diagihkan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontraktor menolak Arahan Kerja kerana: Tamat waktu kerja, Cuti Kecemasan, Cuti Sakit, Halangan di tapak, Kerja pembaikan perlu dilakukan pada waktu lain, Tiada kerjasama pegadu/pemilik premis, Tidak dibenarkan melakukan kerja pembaikan, Lokasi tepat paip pecah/bocor tak ditemui. </t>
-  </si>
-  <si>
-    <t>Kontraktor membatalkan Arahan Kerja kerana: Masalah dalaman (kerosakan selepas meter), Kerja pembaikan dilakukan kontraktor lain/pihak ketiga, Bukan air terawat.</t>
+    <t>Krew  menjalankan proses pengesahan tapak.</t>
   </si>
   <si>
     <r>
@@ -1151,19 +1496,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Setiba di tapak, krew boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
-    </r>
+    <t>Arahan Kerja ditutup selepas krew memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Change Section / Change Region / Decline / Cancel </t>
+      <t>Salesforce</t>
     </r>
     <r>
       <rPr>
@@ -1173,143 +1518,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Arahan Kerja tersebut. 
-Jika tiada, krew memilih pilihan </t>
+      <t xml:space="preserve"> akan agihkan (</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bagi Arahan Kerja Pengesahan Tapak tersebut.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Setiba di tapak, kontraktor boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Decline / Cancel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Arahan Kerja tersebut. 
-Jika tiada, kontraktor memilih pilihan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bagi Arahan Kerja Pembaikan tersebut.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kontraktor perlu mengisi status Arahan Kerja Pembaikan sebagai </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sebaik sahaja kerja pembaikan selesai.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Proses kerja pembaikan dilaksanakan oleh krew (jika pembaikan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inhouse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) atau kontraktor (jika dilantik).</t>
-    </r>
-  </si>
-  <si>
-    <t>CX Wilayah</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
-    <r>
-      <t>Dispatcher mengagihkan (</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1321,97 +1534,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) Arahan Kerja.
- Sebaik sahaja mendapat Arahan Kerja Pembaikan, kontraktor akan memulakan kerja pembaikan dengan segera.</t>
-    </r>
-  </si>
-  <si>
-    <t>Krew/Kontraktor</t>
-  </si>
-  <si>
-    <t>Bersemuka/Panggilan Telefon</t>
-  </si>
-  <si>
-    <t>Customer Cloud Service</t>
-  </si>
-  <si>
-    <t>Pemakluman secara manual
-Akan datang akan menggunakan Field Service App</t>
-  </si>
-  <si>
-    <t>Berdasarkan semakan pada "Case Origin" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
-  </si>
-  <si>
-    <t>JENIS ARAHAN KERJA</t>
-  </si>
-  <si>
-    <t>Pengesahan Tapak</t>
-  </si>
-  <si>
-    <t>Kerja Pembaikan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cancelled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">atau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed </t>
-    </r>
-  </si>
-  <si>
-    <t>Kes ditutup oleh sistem secara automatik dan pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arahan Kerja yang ditutup berstatus Cancelled atau Completed </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
-    </r>
-    <r>
-      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1419,28 +1541,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cancelled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> atau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completed</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -1452,128 +1553,27 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Sistem secara automatik menjadualkan (</t>
-    </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>schedule</t>
+      <t xml:space="preserve">Arahan Kerja Pembaikan kepada kontraktor dilantik setelah maklumat Pihak Berkuasa Tempatan diisi </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">) Arahan Kerja. </t>
+      <t>dalam ruangan sistem Salesforce.</t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dispatcher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>akan mengagihkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dispatch) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arahan Kerja tersubut.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sistem secara automatik menjadualkan (schedule) Arahan Kerja. Dispatcher akan mengagihkan (dispatch) Arahan Kerja tersubut.</t>
-  </si>
-  <si>
-    <t>Kontraktor / Operator Pam</t>
-  </si>
-  <si>
-    <t>PROSES MENGIKUT KATEGORI ADUAN</t>
-  </si>
-  <si>
-    <t>Kerja Pembaikan / Pengesahan Tapak</t>
-  </si>
-  <si>
-    <t>Rujuk Carta Alir C2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed </t>
-    </r>
-  </si>
-  <si>
-    <t>Krew / Kontraktor</t>
-  </si>
-  <si>
-    <t>PROSES PERJALANAN KES BAGI PENGESAHAN TAPAK DAN KERJA PEMBAIKAN MENGGUNAKAN SISTEM SALESFORCE, FIELD SERVICE APP</t>
-  </si>
-  <si>
-    <t>Kes ditutup oleh sistem Salesforce secara automatik.
-Pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
-  </si>
-  <si>
-    <t>Arahan Kerja ditutup selepas kontraktor memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
-  </si>
-  <si>
-    <t>Arahan Kerja ditutup selepas krew memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
   </si>
   <si>
     <t>Sistem secara automatik hasilkan Arahan Kerja Pembaikan</t>
@@ -1661,6 +1661,231 @@
     </r>
   </si>
   <si>
+    <t>Kontraktor mempunyai beberapa pilihan setelah Arahan Kerja Pembaikan diagihkan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontraktor menolak Arahan Kerja kerana: Tamat waktu kerja, Cuti Kecemasan, Cuti Sakit, Halangan di tapak, Kerja pembaikan perlu dilakukan pada waktu lain, Tiada kerjasama pegadu/pemilik premis, Tidak dibenarkan melakukan kerja pembaikan, Lokasi tepat paip pecah/bocor tak ditemui. </t>
+  </si>
+  <si>
+    <t>Kontraktor perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pembaikan diagihkan.</t>
+  </si>
+  <si>
+    <t>Kontraktor membatalkan Arahan Kerja kerana: Masalah dalaman (kerosakan selepas meter), Kerja pembaikan dilakukan kontraktor lain/pihak ketiga, Bukan air terawat.</t>
+  </si>
+  <si>
+    <t>Kontraktor perlu tiba di tapak selewatnya 60 minit. 
+Kontraktor mempunyai beberapa pilihan setelah tiba di tapak.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Setiba di tapak, kontraktor boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Decline / Cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Arahan Kerja tersebut. 
+Jika tiada, kontraktor memilih pilihan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bagi Arahan Kerja Pembaikan tersebut.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kerja Pembaikan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oleh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kontraktor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bergantung kepada </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub-kategori kes yang memerlukan khidmat kontraktor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Untuk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perincian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mengikut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub-kategori kes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, sila rujuk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carta alir berkaitan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kontraktor perlu mengisi status Arahan Kerja Pembaikan sebagai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sebaik sahaja kerja pembaikan selesai.</t>
+    </r>
+  </si>
+  <si>
+    <t>Arahan Kerja ditutup selepas kontraktor memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
+  </si>
+  <si>
+    <t>Kes ditutup oleh sistem Salesforce secara automatik.
+Pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
+  </si>
+  <si>
     <t>BIL</t>
   </si>
   <si>
@@ -1673,25 +1898,31 @@
     <t>Halangan di tapak (Obstacle on site)</t>
   </si>
   <si>
+    <t>WSF perlu menghasilkan arahan kerja baru</t>
+  </si>
+  <si>
     <t>Pengesahan perlu dilakukan pada waktu lain</t>
   </si>
   <si>
-    <t>Tamat waktu kerja</t>
-  </si>
-  <si>
-    <t>Cuti Kecemasan</t>
+    <t>Tukar Zon</t>
   </si>
   <si>
     <t>Tamat Waktu Kerja</t>
   </si>
   <si>
-    <t>Tukar Zon</t>
+    <t>FSM secara automatik akan menghasilkan Arahan Kerja baharu</t>
+  </si>
+  <si>
+    <t>Cuti Kecemasan</t>
   </si>
   <si>
     <t>Cuti Sakit</t>
   </si>
   <si>
     <t>Tiada kerjasama daripada pengadu / pemilik premis</t>
+  </si>
+  <si>
+    <t>WSF perlu memajukan senarai kes kepada Pengurus Teknikal untuk tindakan lanjut pihak Pengurus Teknikal</t>
   </si>
   <si>
     <t>Pengadu gagal dihubungi</t>
@@ -1706,16 +1937,10 @@
     <t>Alamat / no. telefon pengadu salah / tidak lengkap</t>
   </si>
   <si>
-    <t>WSF perlu menghasilkan arahan kerja baru</t>
+    <t>Masalah dalaman</t>
   </si>
   <si>
-    <t>FSM secara automatik akan menghasilkan Arahan Kerja baharu</t>
-  </si>
-  <si>
-    <t>WSF perlu memajukan senarai kes kepada Pengurus Teknikal untuk tindakan lanjut pihak Pengurus Teknikal</t>
-  </si>
-  <si>
-    <t>Masalah dalaman</t>
+    <t>FSM secara automatik akan menutup aduan</t>
   </si>
   <si>
     <t>Telah diselesaikan oleh pengadu</t>
@@ -1739,25 +1964,22 @@
     <t>Pembaikan paip pecah / bocor</t>
   </si>
   <si>
+    <t>WSF perlu melakukan Parent &amp; Child</t>
+  </si>
+  <si>
     <t>Di bawah tanggungjawab pemaju / JMB</t>
+  </si>
+  <si>
+    <t>CX wilayah perlu memaklumkan pengadu dan menutup aduan</t>
   </si>
   <si>
     <t>Dalam tempoh Defect Liability Period</t>
   </si>
   <si>
-    <t>Masalah pada loji rawatan air / rumah pam - sila rujuk apps air</t>
+    <t>WSF perlu hasilkan Arahan Kerja DLP dan agihkan kepada kontraktor berkenaan</t>
   </si>
   <si>
-    <t>FSM secara automatik akan menutup aduan</t>
-  </si>
-  <si>
-    <t>WSF perlu melakukan Parent &amp; Child</t>
-  </si>
-  <si>
-    <t>CX wilayah perlu memaklumkan pengadu dan menutup aduan</t>
-  </si>
-  <si>
-    <t>WSF perlu hasilkan Arahan Kerja DLP dan agihkan kepada kontraktor berkenaan</t>
+    <t>Masalah pada loji rawatan air / rumah pam - sila rujuk apps air</t>
   </si>
   <si>
     <t>WSF perlu tutup aduan selepas isu telah diselesaikan</t>
@@ -1835,22 +2057,25 @@
     <t>TINDAKAN LANJUT</t>
   </si>
   <si>
+    <t>Tamat waktu kerja</t>
+  </si>
+  <si>
+    <t>FSM secara automatik hasilkan Arahan Kerja Baharu</t>
+  </si>
+  <si>
     <t>Halangan di tapak</t>
+  </si>
+  <si>
+    <t>Pihak WSF perlu hasilkan Arahan Kerja baharu</t>
   </si>
   <si>
     <t>Kerja pembaikan perlu dilakukan pada waktu lain</t>
   </si>
   <si>
-    <t>Tidak dibenarkan melakukan kerja pembaikan</t>
+    <t>Pihak WSF perlu majukan aduan kepada Pengurus Teknikal untuk tindakan lanjut</t>
   </si>
   <si>
-    <t>FSM secara automatik hasilkan Arahan Kerja Baharu</t>
-  </si>
-  <si>
-    <t>Pihak WSF perlu hasilkan Arahan Kerja baharu</t>
-  </si>
-  <si>
-    <t>Pihak WSF perlu majukan aduan kepada Pengurus Teknikal untuk tindakan lanjut</t>
+    <t>Tidak dibenarkan melakukan kerja pembaikan</t>
   </si>
   <si>
     <t>Lokasi tepat paip pecah / bocor tidak ditemui</t>
@@ -1868,238 +2093,13 @@
     <t>Masalah dalaman / kerosakan selepas meter</t>
   </si>
   <si>
+    <t>Sistem secara automatik menutup (closed) aduan</t>
+  </si>
+  <si>
     <t>Kerja pembaikan dilakukan kontraktor lain / pihak ketiga</t>
   </si>
   <si>
-    <t>Sistem secara automatik menutup (closed) aduan</t>
-  </si>
-  <si>
-    <r>
-      <t>Arahan Kerja Pengesahan Tapak dihasilkan dan diagihkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>created and dispatched</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) selepas Dispatcher menilai </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Case Origin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aduan.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Contoh masalah sebelum meter: Meter Stand patah, paip tersumbat.
-Contoh masalah selepas meter: Paip bocor, masalah penapis air. </t>
-  </si>
-  <si>
-    <t>Maklumat dan gambar-gambar kerja pembaikan dimuat naik dalam sistem Salesforce</t>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN MASALAH RUMAH PAM &amp; MASALAH KOLAM</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Operator Pam perlu membatalkan Arahan Kerja dalam </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Field Service Application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Berdasarkan semakan pada "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Case Origin</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" dan "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" aduan, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dispatcher </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">akan membuat </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pilihan jenis arahan kerja </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">yang diperlukan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aduan LI/LS yang memerlukan Pengesahan Tapak oleh krew, sila rujuk Azlan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Semasa kerja pembaikan, kawalan injap diperlukan bagi mengurangkan tekanan air didalam paip yang pecah atau penutupan bekalan. Pihak kontraktor akan membuat permohonan kepada </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Associate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wilayah di tapak. Associate berkenaan perlu majukan permohonan kepada Associate NMF wilayah.</t>
-    </r>
+    <t>PROSES MENGIKUT KATEGORI ADUAN</t>
   </si>
   <si>
     <t>CARTA ALIR KERJA</t>
@@ -2112,13 +2112,16 @@
     <t>Kerja -kerja Pembaikan di tapak</t>
   </si>
   <si>
+    <t>Rujukan Carta Alir</t>
+  </si>
+  <si>
     <t>Tuntutan Kerja oleh pihak Kontraktor</t>
   </si>
   <si>
-    <t>Rujukan Carta Alir</t>
+    <t>Pihak AOF, Orang Awam</t>
   </si>
   <si>
-    <t>Orang Awam / Kakitangan</t>
+    <t>TAMBAH ERP</t>
   </si>
 </sst>
 </file>
@@ -2951,7 +2954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3113,71 +3116,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3185,16 +3125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,49 +3140,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3259,19 +3164,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3284,7 +3177,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3297,7 +3189,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3319,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3328,22 +3220,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3355,12 +3238,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3370,33 +3247,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3405,10 +3260,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3416,18 +3268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3485,9 +3325,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3498,7 +3335,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3507,61 +3344,159 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3605,13 +3540,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3624,6 +3552,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -23893,7 +23857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2527458" y="1125932"/>
+          <a:off x="2544843" y="1115858"/>
           <a:ext cx="1379575" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -24039,7 +24003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738780" y="14174773"/>
+          <a:off x="2756165" y="12104212"/>
           <a:ext cx="956931" cy="433856"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -24278,7 +24242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2602076" y="17000853"/>
+          <a:off x="2619461" y="15877349"/>
           <a:ext cx="1230339" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -24398,7 +24362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2638302" y="15015797"/>
+          <a:off x="2655687" y="12948161"/>
           <a:ext cx="1157886" cy="577463"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -24525,7 +24489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2261989" y="3039087"/>
+          <a:off x="2279374" y="4339686"/>
           <a:ext cx="1910513" cy="1005194"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -24893,7 +24857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2348830" y="7918753"/>
+          <a:off x="2366215" y="5834545"/>
           <a:ext cx="1736830" cy="893562"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -25743,7 +25707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2689130" y="16045542"/>
+          <a:off x="2706515" y="14930650"/>
           <a:ext cx="1056231" cy="525780"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -30803,11 +30767,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F3182E8-F5C7-4862-95B4-F5ED214236FC}" name="Table1" displayName="Table1" ref="B2:C12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F3182E8-F5C7-4862-95B4-F5ED214236FC}" name="Table1" displayName="Table1" ref="B2:C12" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B2:C12" xr:uid="{0F3182E8-F5C7-4862-95B4-F5ED214236FC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9244827A-57EE-401B-95F4-73E8794F0458}" name="BIL" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F47A2676-FB21-442A-A8B5-1E3324A22731}" name="SENARAI SEKSYEN" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9244827A-57EE-401B-95F4-73E8794F0458}" name="BIL" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F47A2676-FB21-442A-A8B5-1E3324A22731}" name="SENARAI SEKSYEN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31115,59 +31079,59 @@
   </sheetPr>
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="96" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="75" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -31178,50 +31142,50 @@
       <c r="D4" s="40"/>
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="116" t="s">
-        <v>20</v>
+      <c r="G4" s="85" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85">
+      <c r="B5" s="171">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="172"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>202</v>
+      <c r="H5" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="168" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="76"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="163"/>
     </row>
     <row r="7" spans="2:10" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
@@ -31231,17 +31195,17 @@
       <c r="D7" s="8"/>
       <c r="E7" s="50"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="135" t="s">
-        <v>105</v>
+      <c r="G7" s="95" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -31252,17 +31216,17 @@
       <c r="D8" s="8"/>
       <c r="E8" s="36"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="112" t="s">
-        <v>106</v>
+      <c r="G8" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31274,14 +31238,14 @@
       <c r="E9" s="51"/>
       <c r="F9" s="25"/>
       <c r="G9" s="23" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I9" s="22"/>
-      <c r="J9" s="75" t="s">
-        <v>203</v>
+      <c r="J9" s="162" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -31293,15 +31257,15 @@
       <c r="E10" s="52"/>
       <c r="F10" s="10"/>
       <c r="G10" s="23" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="84"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="177"/>
     </row>
     <row r="11" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
@@ -31311,17 +31275,17 @@
       <c r="D11" s="15"/>
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
-      <c r="G11" s="138" t="s">
-        <v>106</v>
+      <c r="G11" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31332,57 +31296,57 @@
       <c r="D12" s="46"/>
       <c r="E12" s="15"/>
       <c r="F12" s="47"/>
-      <c r="G12" s="134" t="s">
-        <v>106</v>
+      <c r="G12" s="94" t="s">
+        <v>17</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="85">
+    <row r="13" spans="2:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="171">
         <v>9</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="8"/>
       <c r="E13" s="49"/>
       <c r="F13" s="53"/>
-      <c r="G13" s="139" t="s">
-        <v>106</v>
+      <c r="G13" s="98" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="85"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="38"/>
       <c r="D14" s="36"/>
       <c r="E14" s="41"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="138" t="s">
-        <v>106</v>
+      <c r="G14" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31394,16 +31358,16 @@
       <c r="E15" s="41"/>
       <c r="F15" s="47"/>
       <c r="G15" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="75" t="s">
-        <v>31</v>
+      <c r="H15" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="162" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -31414,14 +31378,14 @@
       <c r="D16" s="13"/>
       <c r="E16" s="54"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="G16" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="163"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
     </row>
-    <row r="17" spans="2:10" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>12</v>
       </c>
@@ -31429,17 +31393,17 @@
       <c r="D17" s="8"/>
       <c r="E17" s="55"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="116" t="s">
-        <v>106</v>
+      <c r="G17" s="85" t="s">
+        <v>17</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31451,16 +31415,16 @@
       <c r="E18" s="42"/>
       <c r="F18" s="25"/>
       <c r="G18" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H18" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="164" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31471,12 +31435,12 @@
       <c r="D19" s="8"/>
       <c r="E19" s="50"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="78"/>
+      <c r="G19" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="2:10" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
@@ -31486,38 +31450,38 @@
       <c r="D20" s="32"/>
       <c r="E20" s="36"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="140" t="s">
-        <v>106</v>
+      <c r="G20" s="99" t="s">
+        <v>17</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="197">
+      <c r="B21" s="138">
         <v>16</v>
       </c>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="202" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="203" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="204" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="203" t="s">
-        <v>35</v>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="145" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="144" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -31528,17 +31492,17 @@
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="137" t="s">
-        <v>106</v>
+      <c r="G22" s="96" t="s">
+        <v>17</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31549,46 +31513,45 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="142" t="s">
-        <v>20</v>
+      <c r="G23" s="101" t="s">
+        <v>7</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
+      <c r="B24" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:J24"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="C3:F3"/>
@@ -31608,6 +31571,7 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B24:J24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31634,120 +31598,120 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="189" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="188" t="s">
-        <v>128</v>
+      <c r="B2" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="174">
+      <c r="B3" s="122">
         <v>1</v>
       </c>
-      <c r="C3" s="173" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="184" t="s">
-        <v>141</v>
+      <c r="C3" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="199" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="174">
+      <c r="B4" s="122">
         <v>2</v>
       </c>
-      <c r="C4" s="173" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="184"/>
+      <c r="C4" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="199"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="174">
+      <c r="B5" s="122">
         <v>3</v>
       </c>
-      <c r="C5" s="173" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="184"/>
+      <c r="C5" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="199"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="174">
+      <c r="B6" s="122">
         <v>4</v>
       </c>
-      <c r="C6" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="184" t="s">
-        <v>142</v>
+      <c r="C6" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="199" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="174">
+      <c r="B7" s="122">
         <v>5</v>
       </c>
-      <c r="C7" s="173" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="184"/>
+      <c r="C7" s="121" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="199"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="174">
+      <c r="B8" s="122">
         <v>6</v>
       </c>
-      <c r="C8" s="173" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="184"/>
+      <c r="C8" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="199"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="174">
+      <c r="B9" s="122">
         <v>7</v>
       </c>
-      <c r="C9" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="184" t="s">
+      <c r="C9" s="121" t="s">
         <v>143</v>
+      </c>
+      <c r="D9" s="199" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="174">
+      <c r="B10" s="122">
         <v>8</v>
       </c>
-      <c r="C10" s="173" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="184"/>
+      <c r="C10" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="199"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="174">
+      <c r="B11" s="122">
         <v>9</v>
       </c>
-      <c r="C11" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="184"/>
+      <c r="C11" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="199"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="174">
+      <c r="B12" s="122">
         <v>10</v>
       </c>
-      <c r="C12" s="173" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="184"/>
+      <c r="C12" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="199"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="174">
+      <c r="B13" s="122">
         <v>11</v>
       </c>
-      <c r="C13" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="184"/>
+      <c r="C13" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31778,123 +31742,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="188" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="188" t="s">
-        <v>128</v>
+      <c r="B2" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="183">
+      <c r="B3" s="128">
         <v>1</v>
       </c>
-      <c r="C3" s="183" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="185" t="s">
-        <v>155</v>
+      <c r="C3" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="200" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="183">
+      <c r="B4" s="128">
         <v>2</v>
       </c>
-      <c r="C4" s="183" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="186"/>
+      <c r="C4" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="201"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="183">
+      <c r="B5" s="128">
         <v>3</v>
       </c>
-      <c r="C5" s="183" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="186"/>
+      <c r="C5" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="201"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="183">
+      <c r="B6" s="128">
         <v>4</v>
       </c>
-      <c r="C6" s="183" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="186"/>
+      <c r="C6" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="201"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="183">
+      <c r="B7" s="128">
         <v>5</v>
       </c>
-      <c r="C7" s="183" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="186"/>
+      <c r="C7" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="201"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="183">
+      <c r="B8" s="128">
         <v>6</v>
       </c>
-      <c r="C8" s="183" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="186"/>
+      <c r="C8" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="201"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="183">
+      <c r="B9" s="128">
         <v>7</v>
       </c>
-      <c r="C9" s="183" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="187"/>
+      <c r="C9" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="202"/>
     </row>
     <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="183">
+      <c r="B10" s="128">
         <v>8</v>
       </c>
-      <c r="C10" s="183" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="183" t="s">
-        <v>156</v>
+      <c r="C10" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="183">
+    <row r="11" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="128">
         <v>9</v>
       </c>
-      <c r="C11" s="183" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="183" t="s">
-        <v>157</v>
+      <c r="C11" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="183">
+    <row r="12" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="128">
         <v>10</v>
       </c>
-      <c r="C12" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="183" t="s">
-        <v>158</v>
+      <c r="C12" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="183">
+    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="128">
         <v>11</v>
       </c>
-      <c r="C13" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="183" t="s">
-        <v>159</v>
+      <c r="C13" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -31923,91 +31887,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="194" t="s">
-        <v>160</v>
+      <c r="B2" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="191">
+      <c r="B3" s="132">
         <v>1</v>
       </c>
-      <c r="C3" s="192" t="s">
-        <v>161</v>
+      <c r="C3" s="133" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="191">
+      <c r="B4" s="132">
         <v>2</v>
       </c>
-      <c r="C4" s="192" t="s">
-        <v>162</v>
+      <c r="C4" s="133" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="191">
+      <c r="B5" s="132">
         <v>3</v>
       </c>
-      <c r="C5" s="192" t="s">
-        <v>163</v>
+      <c r="C5" s="133" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="191">
+      <c r="B6" s="132">
         <v>4</v>
       </c>
-      <c r="C6" s="192" t="s">
-        <v>164</v>
+      <c r="C6" s="133" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="191">
+      <c r="B7" s="132">
         <v>5</v>
       </c>
-      <c r="C7" s="192" t="s">
-        <v>165</v>
+      <c r="C7" s="133" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="191">
+      <c r="B8" s="132">
         <v>6</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>166</v>
+      <c r="C8" s="133" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="191">
+      <c r="B9" s="132">
         <v>7</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>167</v>
+      <c r="C9" s="133" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="191">
+      <c r="B10" s="132">
         <v>8</v>
       </c>
-      <c r="C10" s="192" t="s">
-        <v>168</v>
+      <c r="C10" s="133" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="191">
+      <c r="B11" s="132">
         <v>9</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>169</v>
+      <c r="C11" s="133" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="195">
+      <c r="B12" s="136">
         <v>10</v>
       </c>
-      <c r="C12" s="196" t="s">
-        <v>170</v>
+      <c r="C12" s="137" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -32032,103 +31996,103 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="188" t="s">
-        <v>171</v>
+      <c r="B2" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="183">
+      <c r="B3" s="128">
         <v>1</v>
       </c>
-      <c r="C3" s="183" t="s">
-        <v>172</v>
+      <c r="C3" s="128" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="183">
+      <c r="B4" s="128">
         <v>2</v>
       </c>
-      <c r="C4" s="183" t="s">
-        <v>173</v>
+      <c r="C4" s="128" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="183">
+      <c r="B5" s="128">
         <v>3</v>
       </c>
-      <c r="C5" s="183" t="s">
-        <v>174</v>
+      <c r="C5" s="128" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="183">
+      <c r="B6" s="128">
         <v>4</v>
       </c>
-      <c r="C6" s="183" t="s">
-        <v>175</v>
+      <c r="C6" s="128" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="183">
+      <c r="B7" s="128">
         <v>5</v>
       </c>
-      <c r="C7" s="183" t="s">
-        <v>176</v>
+      <c r="C7" s="128" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="183">
+      <c r="B8" s="128">
         <v>6</v>
       </c>
-      <c r="C8" s="183" t="s">
-        <v>177</v>
+      <c r="C8" s="128" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="183">
+      <c r="B9" s="128">
         <v>7</v>
       </c>
-      <c r="C9" s="183" t="s">
-        <v>178</v>
+      <c r="C9" s="128" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="183">
+      <c r="B10" s="128">
         <v>8</v>
       </c>
-      <c r="C10" s="183" t="s">
-        <v>179</v>
+      <c r="C10" s="128" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="183">
+      <c r="B11" s="128">
         <v>9</v>
       </c>
-      <c r="C11" s="183" t="s">
-        <v>180</v>
+      <c r="C11" s="128" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="183">
+      <c r="B12" s="128">
         <v>10</v>
       </c>
-      <c r="C12" s="183" t="s">
-        <v>181</v>
+      <c r="C12" s="128" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="183">
+      <c r="B13" s="128">
         <v>11</v>
       </c>
-      <c r="C13" s="183" t="s">
-        <v>182</v>
+      <c r="C13" s="128" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -32155,94 +32119,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="188" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="188" t="s">
-        <v>183</v>
+      <c r="B2" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="183">
+      <c r="B3" s="128">
         <v>1</v>
       </c>
-      <c r="C3" s="183" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="184" t="s">
-        <v>187</v>
+      <c r="C3" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="199" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="183">
+      <c r="B4" s="128">
         <v>2</v>
       </c>
-      <c r="C4" s="183" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="184"/>
+      <c r="C4" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="199"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="183">
+      <c r="B5" s="128">
         <v>3</v>
       </c>
-      <c r="C5" s="183" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="184"/>
+      <c r="C5" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="199"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="183">
+      <c r="B6" s="128">
         <v>4</v>
       </c>
-      <c r="C6" s="183" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="184" t="s">
-        <v>188</v>
+      <c r="C6" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="199" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="183">
+      <c r="B7" s="128">
         <v>5</v>
       </c>
-      <c r="C7" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="184"/>
+      <c r="C7" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="199"/>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="183">
+      <c r="B8" s="128">
         <v>6</v>
       </c>
-      <c r="C8" s="183" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="184" t="s">
-        <v>189</v>
+      <c r="C8" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="199" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="183">
+      <c r="B9" s="128">
         <v>7</v>
       </c>
-      <c r="C9" s="183" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="184"/>
+      <c r="C9" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="199"/>
     </row>
     <row r="10" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="183">
+      <c r="B10" s="128">
         <v>8</v>
       </c>
-      <c r="C10" s="183" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="183" t="s">
-        <v>191</v>
+      <c r="C10" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -32274,38 +32238,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="174" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="174" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="174" t="s">
-        <v>193</v>
+      <c r="B2" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="122" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="174"/>
-      <c r="C3" s="174" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="185" t="s">
-        <v>196</v>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="200" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="174"/>
-      <c r="C4" s="174" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="186"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="201"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="174"/>
-      <c r="C5" s="174" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="187"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32333,87 +32297,87 @@
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="171.77734375" customWidth="1"/>
+    <col min="6" max="6" width="171.6640625" customWidth="1"/>
     <col min="7" max="7" width="44" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="178" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
       <c r="G3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="146" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="40"/>
       <c r="F4" s="53"/>
       <c r="G4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="206">
+      <c r="B5" s="147">
         <v>2</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="192"/>
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="207">
+      <c r="B6" s="148">
         <v>3</v>
       </c>
-      <c r="C6" s="208"/>
+      <c r="C6" s="205"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="53"/>
       <c r="G6" s="61"/>
     </row>
-    <row r="7" spans="2:7" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="207">
+    <row r="7" spans="2:7" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="148">
         <v>4</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="168"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
       <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="207"/>
-      <c r="C8" s="209" t="s">
-        <v>208</v>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -32421,63 +32385,65 @@
       <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="174">
+      <c r="B9" s="122">
         <v>5</v>
       </c>
-      <c r="C9" s="183" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="128"/>
+      <c r="C9" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="91"/>
     </row>
-    <row r="10" spans="2:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="63">
         <v>6</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="192"/>
       <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63">
         <v>7</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="136"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="169"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="107"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="D7:F7"/>
@@ -32485,8 +32451,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32502,7 +32466,7 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="81" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="81" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
@@ -32510,48 +32474,48 @@
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="162" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="73" t="s">
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -32561,61 +32525,61 @@
       <c r="C4" s="4"/>
       <c r="D4" s="40"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="154" t="s">
-        <v>3</v>
+      <c r="F4" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>8</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="114">
+      <c r="B5" s="183">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="155" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>62</v>
+      <c r="G5" s="185" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="168" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="115"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="76"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="163"/>
     </row>
     <row r="7" spans="2:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="99">
+      <c r="B7" s="76">
         <v>3</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="40"/>
       <c r="E7" s="60"/>
       <c r="F7" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="157" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="57"/>
@@ -32628,16 +32592,16 @@
       <c r="D8" s="8"/>
       <c r="E8" s="50"/>
       <c r="F8" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="135" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -32648,16 +32612,16 @@
       <c r="D9" s="8"/>
       <c r="E9" s="36"/>
       <c r="F9" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="158" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32668,16 +32632,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="51"/>
       <c r="F10" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="159" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>50</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -32688,16 +32652,16 @@
       <c r="D11" s="8"/>
       <c r="E11" s="50"/>
       <c r="F11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="159" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>50</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32707,38 +32671,38 @@
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="160" t="s">
-        <v>20</v>
+      <c r="F12" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>7</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -32769,7 +32733,7 @@
   </sheetPr>
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="41" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="41" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -32778,48 +32742,48 @@
     <col min="2" max="2" width="5.109375" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="96" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="96" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="75" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="75" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" style="70" customWidth="1"/>
     <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="165" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="119" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -32830,17 +32794,17 @@
       <c r="D4" s="13"/>
       <c r="E4" s="40"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="163" t="s">
-        <v>20</v>
+      <c r="G4" s="117" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="123" customHeight="1" x14ac:dyDescent="0.3">
@@ -32852,15 +32816,15 @@
       <c r="E5" s="8"/>
       <c r="F5" s="52"/>
       <c r="G5" s="23" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="123"/>
+        <v>11</v>
+      </c>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="2:10" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
@@ -32871,19 +32835,19 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="112" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="111" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="63">
         <v>3</v>
       </c>
@@ -32892,16 +32856,16 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="112" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="117" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="J7" s="86" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -32913,254 +32877,254 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="112" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="111" t="s">
-        <v>198</v>
+        <v>54</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="63">
         <v>5</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="117" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="63">
         <v>6</v>
       </c>
-      <c r="C10" s="101"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="127" t="s">
-        <v>12</v>
+      <c r="G10" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="I10" s="56"/>
-      <c r="J10" s="111" t="s">
-        <v>65</v>
+      <c r="J10" s="83" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63">
         <v>7</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="102"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="13"/>
       <c r="G11" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="127" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="118" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63">
         <v>8</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="102"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="13"/>
       <c r="G12" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="125" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63">
         <v>9</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="102"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="13"/>
       <c r="G13" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="127" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="J13" s="90" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63">
         <v>10</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="102"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="13"/>
       <c r="G14" s="57" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="125" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63">
         <v>11</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="102"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="13"/>
       <c r="G15" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="127" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="61"/>
     </row>
-    <row r="16" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63">
         <v>12</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="102"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="13"/>
       <c r="G16" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="127" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="61"/>
     </row>
-    <row r="17" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63">
         <v>13</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="102"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="13"/>
       <c r="G17" s="57" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="63">
         <v>14</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="102"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="13"/>
       <c r="G18" s="57" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63">
         <v>15</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="102"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="13"/>
       <c r="G19" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="95" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>7</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
-      <c r="C20" s="101"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="102"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="13"/>
       <c r="G20" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="127" t="s">
-        <v>199</v>
+        <v>49</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="120" customHeight="1" x14ac:dyDescent="0.3">
@@ -33172,16 +33136,16 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="23" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="144" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="J21" s="103" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
@@ -33192,29 +33156,29 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="164" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="143" t="s">
-        <v>108</v>
+      <c r="G22" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="102" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33249,54 +33213,54 @@
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -33306,16 +33270,16 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="57" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33328,19 +33292,19 @@
       <c r="F5" s="55"/>
       <c r="G5" s="32"/>
       <c r="H5" s="44" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="63">
         <v>3</v>
       </c>
@@ -33350,16 +33314,16 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="44" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="112" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -33372,21 +33336,21 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="44" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="112" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="63"/>
-      <c r="C8" s="101"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -33394,85 +33358,85 @@
       <c r="H8" s="44"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="112" t="s">
-        <v>116</v>
+      <c r="K8" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="63">
         <v>5</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="44" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="112"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="2:11" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="210">
+    <row r="10" spans="2:11" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="150">
         <v>6</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="212" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="213" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="213" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="214" t="s">
-        <v>71</v>
+      <c r="C10" s="151"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="154" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="210"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="212" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="213" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="213" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="214" t="s">
-        <v>72</v>
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="154" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="217"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="220"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
     </row>
-    <row r="13" spans="2:11" ht="103.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="103.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63">
         <v>7</v>
       </c>
@@ -33484,19 +33448,19 @@
       <c r="H13" s="44"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="112"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -33518,18 +33482,18 @@
   </sheetPr>
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="58" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="58" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" style="70" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
@@ -33537,44 +33501,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -33583,17 +33547,17 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="116" t="s">
-        <v>105</v>
+      <c r="H4" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33605,20 +33569,20 @@
       <c r="E5" s="55"/>
       <c r="F5" s="32"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="177" t="s">
-        <v>105</v>
+      <c r="H5" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="63">
         <v>3</v>
       </c>
@@ -33627,17 +33591,17 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="177" t="s">
-        <v>105</v>
+      <c r="H6" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -33649,17 +33613,17 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="177" t="s">
-        <v>105</v>
+      <c r="H7" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -33671,17 +33635,17 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="177" t="s">
-        <v>105</v>
+      <c r="H8" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="64" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33693,39 +33657,39 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="177" t="s">
-        <v>105</v>
+      <c r="H9" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="210">
+    <row r="10" spans="2:11" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="150">
         <v>7</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="213" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="213" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="213" t="s">
-        <v>20</v>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="153" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33737,17 +33701,17 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="177" t="s">
-        <v>105</v>
+      <c r="H11" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -33759,17 +33723,17 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="177" t="s">
-        <v>105</v>
+      <c r="H12" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33781,17 +33745,17 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="177" t="s">
-        <v>105</v>
+      <c r="H13" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33803,17 +33767,17 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="177" t="s">
-        <v>105</v>
+      <c r="H14" s="123" t="s">
+        <v>13</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="144" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="K14" s="103" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33825,30 +33789,30 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="47"/>
-      <c r="H15" s="138" t="s">
-        <v>20</v>
+      <c r="H15" s="97" t="s">
+        <v>7</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33870,57 +33834,57 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33931,70 +33895,70 @@
       <c r="D4" s="40"/>
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="116" t="s">
-        <v>20</v>
+      <c r="G4" s="85" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="114">
+      <c r="B5" s="183">
         <v>2</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="172"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>103</v>
+      <c r="H5" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="168" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="115"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="76"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="163"/>
     </row>
-    <row r="7" spans="2:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="99">
+    <row r="7" spans="2:10" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="76">
         <v>3</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="60"/>
-      <c r="E7" s="102"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>12</v>
+      <c r="G7" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>14</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34005,17 +33969,17 @@
       <c r="D8" s="50"/>
       <c r="E8" s="68"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="135" t="s">
-        <v>105</v>
+      <c r="G8" s="95" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -34026,17 +33990,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="36"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="178" t="s">
-        <v>106</v>
+      <c r="G9" s="124" t="s">
+        <v>17</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="153" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34047,17 +34011,17 @@
       <c r="D10" s="8"/>
       <c r="E10" s="51"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="158" t="s">
-        <v>106</v>
+      <c r="G10" s="114" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34068,17 +34032,17 @@
       <c r="D11" s="8"/>
       <c r="E11" s="52"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="158" t="s">
-        <v>115</v>
+      <c r="G11" s="114" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34087,19 +34051,19 @@
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="100"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="178" t="s">
-        <v>115</v>
+      <c r="G12" s="124" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34110,40 +34074,40 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="142" t="s">
-        <v>20</v>
+      <c r="G13" s="101" t="s">
+        <v>7</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -34174,7 +34138,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="67" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="67" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -34182,50 +34146,50 @@
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -34236,50 +34200,50 @@
       <c r="D4" s="40"/>
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="180" t="s">
-        <v>20</v>
+      <c r="G4" s="125" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85">
+      <c r="B5" s="171">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="81" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>61</v>
+      <c r="H5" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="168" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="76"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="163"/>
     </row>
     <row r="7" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
@@ -34289,17 +34253,17 @@
       <c r="D7" s="40"/>
       <c r="E7" s="60"/>
       <c r="F7" s="47"/>
-      <c r="G7" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>12</v>
+      <c r="G7" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>14</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34310,17 +34274,17 @@
       <c r="D8" s="40"/>
       <c r="E8" s="60"/>
       <c r="F8" s="47"/>
-      <c r="G8" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>12</v>
+      <c r="G8" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>14</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="125" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34331,17 +34295,17 @@
       <c r="D9" s="40"/>
       <c r="E9" s="60"/>
       <c r="F9" s="47"/>
-      <c r="G9" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="95" t="s">
-        <v>96</v>
+      <c r="G9" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="126" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="J9" s="90" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34352,17 +34316,17 @@
       <c r="D10" s="40"/>
       <c r="E10" s="60"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="180" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>97</v>
+      <c r="G10" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>65</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="126" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="J10" s="90" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34373,17 +34337,17 @@
       <c r="D11" s="8"/>
       <c r="E11" s="50"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="135" t="s">
-        <v>105</v>
+      <c r="G11" s="95" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -34394,17 +34358,17 @@
       <c r="D12" s="8"/>
       <c r="E12" s="36"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="178" t="s">
-        <v>106</v>
+      <c r="G12" s="124" t="s">
+        <v>17</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="132" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34415,17 +34379,17 @@
       <c r="D13" s="8"/>
       <c r="E13" s="51"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="158" t="s">
-        <v>106</v>
+      <c r="G13" s="114" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34437,16 +34401,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="10"/>
       <c r="G14" s="23" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34455,19 +34419,19 @@
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="100"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="72"/>
-      <c r="G15" s="178" t="s">
-        <v>115</v>
+      <c r="G15" s="124" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34478,40 +34442,40 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="160" t="s">
-        <v>20</v>
+      <c r="G16" s="116" t="s">
+        <v>7</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -34541,63 +34505,67 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+    <row r="2" spans="2:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
     </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="M3" s="206" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -34605,146 +34573,146 @@
       <c r="D4" s="40"/>
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="180" t="s">
-        <v>20</v>
+      <c r="G4" s="125" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99">
+    <row r="5" spans="2:13" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="76">
         <v>2</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="105"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="158" t="s">
-        <v>105</v>
+      <c r="G5" s="114" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99">
+    <row r="6" spans="2:13" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="76">
         <v>3</v>
       </c>
-      <c r="C6" s="103"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="60"/>
-      <c r="E6" s="102"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="158" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="95" t="s">
-        <v>50</v>
+      <c r="G6" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="102"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="179" t="s">
-        <v>105</v>
+      <c r="G7" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="102"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="179" t="s">
-        <v>105</v>
+      <c r="G8" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="102"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="179" t="s">
-        <v>105</v>
+      <c r="G9" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="8"/>
       <c r="E10" s="68"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="158" t="s">
-        <v>105</v>
+      <c r="G10" s="114" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -34753,19 +34721,19 @@
       <c r="E11" s="36"/>
       <c r="F11" s="10"/>
       <c r="G11" s="23" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -34774,19 +34742,19 @@
       <c r="E12" s="51"/>
       <c r="F12" s="25"/>
       <c r="G12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -34794,20 +34762,20 @@
       <c r="D13" s="8"/>
       <c r="E13" s="50"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="159" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="127" t="s">
-        <v>50</v>
+      <c r="G13" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>80</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -34815,20 +34783,20 @@
       <c r="D14" s="8"/>
       <c r="E14" s="50"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="159" t="s">
-        <v>115</v>
+      <c r="G14" s="115" t="s">
+        <v>49</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J14" s="59" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -34836,40 +34804,40 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="160" t="s">
-        <v>20</v>
+      <c r="G15" s="116" t="s">
+        <v>7</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -34904,49 +34872,49 @@
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
     </row>
-    <row r="3" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="133" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="93" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -34954,17 +34922,17 @@
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="53"/>
-      <c r="G4" s="179" t="s">
-        <v>20</v>
+      <c r="G4" s="113" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -34975,17 +34943,17 @@
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>105</v>
-      </c>
-      <c r="H5" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34996,122 +34964,122 @@
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="106" t="s">
-        <v>12</v>
+      <c r="G6" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>14</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
-      <c r="G7" s="179" t="s">
-        <v>105</v>
+      <c r="G7" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
-      <c r="G8" s="179" t="s">
-        <v>105</v>
+      <c r="G8" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J8" s="67" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="47"/>
-      <c r="G9" s="179" t="s">
-        <v>105</v>
+      <c r="G9" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="47"/>
-      <c r="G10" s="179" t="s">
-        <v>105</v>
+      <c r="G10" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
-      <c r="G11" s="179" t="s">
-        <v>105</v>
+      <c r="G11" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -35122,117 +35090,117 @@
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="53"/>
-      <c r="G12" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="106" t="s">
-        <v>12</v>
+      <c r="G12" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="108"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="179" t="s">
-        <v>105</v>
+      <c r="G13" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="108"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="179" t="s">
-        <v>105</v>
+      <c r="G14" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="121" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="J14" s="193" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="108"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="179" t="s">
-        <v>105</v>
+      <c r="G15" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="122"/>
+        <v>54</v>
+      </c>
+      <c r="J15" s="194"/>
     </row>
     <row r="16" spans="2:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="108"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="179" t="s">
-        <v>105</v>
+      <c r="G16" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="122"/>
+        <v>54</v>
+      </c>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="2:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="108"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="179" t="s">
-        <v>105</v>
+      <c r="G17" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="122"/>
+        <v>54</v>
+      </c>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
@@ -35242,395 +35210,395 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="53"/>
-      <c r="G18" s="179" t="s">
-        <v>105</v>
+      <c r="G18" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="120"/>
+        <v>54</v>
+      </c>
+      <c r="J18" s="195"/>
     </row>
     <row r="19" spans="2:11" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="108"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="179" t="s">
-        <v>105</v>
+      <c r="G19" s="113" t="s">
+        <v>13</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>19</v>
       </c>
-      <c r="C20" s="108"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
-      <c r="G20" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="119" t="s">
-        <v>33</v>
+      <c r="G20" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>11</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="108"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="53"/>
-      <c r="G21" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="119" t="s">
-        <v>12</v>
+      <c r="G21" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="80" t="s">
+        <v>14</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="108"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="53"/>
-      <c r="G22" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="119" t="s">
-        <v>7</v>
+      <c r="G22" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="C23" s="108"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="53"/>
-      <c r="G23" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="119" t="s">
-        <v>20</v>
+      <c r="G23" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="80" t="s">
+        <v>7</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="181" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="182"/>
+        <v>11</v>
+      </c>
+      <c r="J23" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="127"/>
     </row>
     <row r="24" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="C24" s="108"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="53"/>
-      <c r="G24" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="119"/>
+      <c r="G24" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="80"/>
       <c r="I24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="182"/>
+        <v>120</v>
+      </c>
+      <c r="J24" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="127"/>
     </row>
     <row r="25" spans="2:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>21</v>
       </c>
-      <c r="C25" s="108"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
-      <c r="G25" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="112" t="s">
-        <v>4</v>
+      <c r="G25" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>22</v>
       </c>
-      <c r="C26" s="108"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
-      <c r="G26" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="119" t="s">
-        <v>4</v>
+      <c r="G26" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I26" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>23</v>
       </c>
-      <c r="C27" s="108"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="119" t="s">
-        <v>4</v>
+      <c r="G27" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>24</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
-      <c r="G28" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="119" t="s">
-        <v>4</v>
+      <c r="G28" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I28" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>25</v>
       </c>
-      <c r="C29" s="108"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
-      <c r="G29" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="112" t="s">
-        <v>4</v>
+      <c r="G29" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>26</v>
       </c>
-      <c r="C30" s="108"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
-      <c r="G30" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="119" t="s">
-        <v>4</v>
+      <c r="G30" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I30" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="121" t="s">
-        <v>93</v>
+        <v>54</v>
+      </c>
+      <c r="J30" s="193" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>27</v>
       </c>
-      <c r="C31" s="108"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
-      <c r="G31" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="119" t="s">
-        <v>4</v>
+      <c r="G31" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I31" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="122"/>
+        <v>54</v>
+      </c>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="2:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>28</v>
       </c>
-      <c r="C32" s="108"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
-      <c r="G32" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="119" t="s">
-        <v>4</v>
+      <c r="G32" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="120"/>
+        <v>54</v>
+      </c>
+      <c r="J32" s="195"/>
     </row>
     <row r="33" spans="2:10" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>29</v>
       </c>
-      <c r="C33" s="108"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
-      <c r="G33" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="119" t="s">
-        <v>4</v>
+      <c r="G33" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>30</v>
       </c>
-      <c r="C34" s="108"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
       <c r="F34" s="47"/>
-      <c r="G34" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="119" t="s">
-        <v>4</v>
+      <c r="G34" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="62">
         <v>31</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
-      <c r="G35" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="152" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="150" t="s">
-        <v>37</v>
+      <c r="G35" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="109" t="s">
+        <v>54</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="145">
+      <c r="B36" s="104">
         <v>32</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="190" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="150" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="151" t="s">
-        <v>120</v>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="110" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="131"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -35647,6 +35615,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009AF952945E8A304BAE7135495C475047" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcfc9ed72e6e3bb7468b80afd2d8771e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d8786a3-f31d-4156-b834-30d20662e8dd" xmlns:ns4="293e914e-8d63-4d97-b97a-363761b87379" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96a57b55a13755a66a9810ed20fe0d64" ns3:_="" ns4:_="">
     <xsd:import namespace="0d8786a3-f31d-4156-b834-30d20662e8dd"/>
@@ -35867,7 +35844,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="0d8786a3-f31d-4156-b834-30d20662e8dd" xsi:nil="true"/>
@@ -35875,16 +35852,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2D9E18-6149-4505-B8C5-64E519963E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87813378-78B3-43B3-9EC7-049B4AEE64FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35903,27 +35879,12 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1500130A-BF64-4ABE-A6EA-14EBA4DEED02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="293e914e-8d63-4d97-b97a-363761b87379"/>
     <ds:schemaRef ds:uri="0d8786a3-f31d-4156-b834-30d20662e8dd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2D9E18-6149-4505-B8C5-64E519963E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PROCESS FLOW.xlsx
+++ b/PROCESS FLOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airselangor-my.sharepoint.com/personal/iqmal_jamaludin_airselangor_com/Documents/Desktop/MANUAL SENGGARAAN PAIP versi 2 (2012)/MANUAL SENGGARAAN PAIP versi 3 (2024)/WORD/EDISI TERHAD/CONTENT/iqmal_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5282" documentId="8_{E4AD2C84-A550-4F35-807F-80C5D7D7963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8703B2ED-7C22-47AE-A5C1-FC5AA649F841}"/>
+  <xr:revisionPtr revIDLastSave="5324" documentId="8_{E4AD2C84-A550-4F35-807F-80C5D7D7963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3B6CCA-3101-4F9A-BEF4-8DACE397A0B2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="737" firstSheet="5" activeTab="7" xr2:uid="{C719F92E-BDF6-46C7-BEA2-AB8253240474}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="737" firstSheet="2" activeTab="4" xr2:uid="{C719F92E-BDF6-46C7-BEA2-AB8253240474}"/>
   </bookViews>
   <sheets>
     <sheet name="FLOW A" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="15">General!$A$2:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Overview!$A$1:$K$38</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,28 +65,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="211">
   <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN PAIP PECAH</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>PROSES</t>
-  </si>
-  <si>
-    <t>JENIS ARAHAN KERJA</t>
   </si>
   <si>
     <t>TINDAKAN OLEH</t>
   </si>
   <si>
-    <t>SISTEM DIGUNAKAN</t>
-  </si>
-  <si>
     <t>KETERANGAN</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <r>
@@ -105,171 +90,37 @@
     </r>
   </si>
   <si>
-    <t>Saluran Aduan Rasmi Air Selangor</t>
+    <t>Kontraktor</t>
+  </si>
+  <si>
+    <t>Customer Experience Department (CXD) HQ</t>
+  </si>
+  <si>
+    <t>Juruteknik</t>
   </si>
   <si>
     <t>Work Scheduling Function Unit (Dispatcher)</t>
   </si>
   <si>
-    <t>Salesforce</t>
+    <t>SISTEM DIGUNAKAN</t>
   </si>
   <si>
-    <r>
-      <t>Berdasarkan semakan pada "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Case Origin</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" dan "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" aduan, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dispatcher </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">akan membuat </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pilihan jenis arahan kerja </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">yang diperlukan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aduan LI/LS yang memerlukan Pengesahan Tapak oleh krew, sila rujuk Azlan.</t>
-    </r>
+    <t>Field Service Application</t>
   </si>
   <si>
-    <t>Pengesahan Tapak</t>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Saluran Aduan Rasmi Air Selangor</t>
   </si>
   <si>
     <t>Krew</t>
   </si>
   <si>
-    <t>Field Service Application</t>
+    <t>Call/ Whatsapp</t>
   </si>
   <si>
-    <t>Semasa membuat semakan tapak, krew akan membuat penilaian samada kerja pembaikan boleh dilakukan oleh beliau (In-house) atau lantikan kontraktor diperlukan.</t>
-  </si>
-  <si>
-    <t>Kerja Pembaikan</t>
-  </si>
-  <si>
-    <t>Sistem secara automatik menjadualkan (schedule) Arahan Kerja. Dispatcher akan mengagihkan (dispatch) Arahan Kerja tersubut.</t>
-  </si>
-  <si>
-    <t>Kontraktor</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Semasa kerja pembaikan, kawalan injap diperlukan bagi mengurangkan tekanan air didalam paip yang pecah atau penutupan bekalan. Pihak kontraktor akan membuat permohonan kepada </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Associate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wilayah di tapak. Associate berkenaan perlu majukan permohonan kepada Associate NMF wilayah.</t>
-    </r>
-  </si>
-  <si>
-    <t>Call/ Whatsapp</t>
+    <t>Associate Unit Network Maintenance Function</t>
   </si>
   <si>
     <r>
@@ -306,8 +157,66 @@
     </r>
   </si>
   <si>
+    <t>Maklumat tersebut kemudian dimajukan kepada kakitangan CX wilayah yang kemudian memajukan kepada CXD Hq</t>
+  </si>
+  <si>
+    <t>One Screen, Air Selangor Apps &amp; Social Media</t>
+  </si>
+  <si>
+    <t>Kontraktor &amp; Associate/ Juruteknik</t>
+  </si>
+  <si>
+    <t>Kontraktor akan melaksanakan kerja pembaikan seperti yang dirancangan dengan segera dan pada masa yang sama Assocaite/ Juruteknik yang memantau kerja pembaikan akan memaklumkan piahk CX wilayah peratusan kerja pembaikan.
+Pemakluman peratusan kerja pembaikan diteruskan sehingga kerja pembaikan selesai.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Kelulusan dan perincian arahan pengawalan injap diperoleh daripada Associate &amp; Juruteknik </t>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Associate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bertanggungjawab membuat senarai kawasan terlibat, menyatakan tarikh &amp; masa mula gangguan dan tarikh &amp; masa jangkaan gangguan tamat.</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer Experience Department (CX) wilayah</t>
+  </si>
+  <si>
+    <t>Selepas mendapat pengesahan bahawa kerja pembaikan paip selesai, injap akan dibuka dengan segera.</t>
+  </si>
+  <si>
+    <t>Sebaik sahaja mendapat Arahan kerja kontraktor akan memulakan kerja pembaikan dengan segera.</t>
+  </si>
+  <si>
+    <t>Pengawalan injap dilakukan oleh Juruteknik yang ditugaskan pada tarikh &amp; masa yang telah ditetapkan. 
+Kawalan injap adalah samaada penutupan sepenuhnya atau sebahagian.</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Semasa membuat semakan tapak, krew akan membuat penilaian samada kerja pembaikan boleh dilakukan oleh beliau (In-house) atau lantikan kontraktor diperlukan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paip pecah menyebabkan status ERP Kuning atau ERP Merah diaktifkan, sila rujuk pihak </t>
     </r>
     <r>
       <rPr>
@@ -318,7 +227,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Network Maintenance Function.</t>
+      <t xml:space="preserve">Strategic Monitoring &amp; Emergency Response Plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>untuk tindakan lanjut.</t>
     </r>
   </si>
   <si>
@@ -349,73 +268,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Paip pecah menyebabkan status ERP Kuning atau ERP Merah diaktifkan, sila rujuk pihak </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Strategic Monitoring &amp; Emergency Response Plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>untuk tindakan lanjut.</t>
-    </r>
-  </si>
-  <si>
-    <t>Associate Unit Network Maintenance Function</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Associate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bertanggungjawab membuat senarai kawasan terlibat, menyatakan tarikh &amp; masa mula gangguan dan tarikh &amp; masa jangkaan gangguan tamat.</t>
-    </r>
-  </si>
-  <si>
-    <t>Customer Experience Department (CX) wilayah</t>
-  </si>
-  <si>
-    <t>Whatsapp</t>
-  </si>
-  <si>
-    <t>Maklumat tersebut kemudian dimajukan kepada kakitangan CX wilayah yang kemudian memajukan kepada CXD Hq</t>
-  </si>
-  <si>
-    <t>Customer Experience Department (CXD) HQ</t>
-  </si>
-  <si>
-    <t>One Screen, Air Selangor Apps &amp; Social Media</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Pihak </t>
     </r>
     <r>
@@ -442,36 +294,10 @@
     </r>
   </si>
   <si>
-    <t>Juruteknik Network Maintenance Function Unit</t>
-  </si>
-  <si>
-    <t>Pengawalan injap dilakukan oleh Juruteknik yang ditugaskan pada tarikh &amp; masa yang telah ditetapkan. 
-Kawalan injap adalah samaada penutupan sepenuhnya atau sebahagian.</t>
-  </si>
-  <si>
-    <t>Kontraktor &amp; Associate/ Juruteknik</t>
-  </si>
-  <si>
-    <t>Kontraktor akan melaksanakan kerja pembaikan seperti yang dirancangan dengan segera dan pada masa yang sama Assocaite/ Juruteknik yang memantau kerja pembaikan akan memaklumkan piahk CX wilayah peratusan kerja pembaikan.
-Pemakluman peratusan kerja pembaikan diteruskan sehingga kerja pembaikan selesai.</t>
-  </si>
-  <si>
-    <t>Juruteknik</t>
-  </si>
-  <si>
-    <t>Selepas mendapat pengesahan bahawa kerja pembaikan paip selesai, injap akan dibuka dengan segera.</t>
-  </si>
-  <si>
     <t>Pihak Wilayah berkenaan.</t>
   </si>
   <si>
-    <t>Pemakluman kepada pihak Strategic Monitoring secara berkala sehingga pemulihan selesai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arahan Kerja yang ditutup berstatus Cancelled atau Completed </t>
-  </si>
-  <si>
-    <t>Kes ditutup oleh sistem secara automatik dan pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
+    <t>Salesforce</t>
   </si>
   <si>
     <r>
@@ -508,7 +334,99 @@
     </r>
   </si>
   <si>
+    <t>Pemakluman kepada pihak Strategic Monitoring secara berkala sehingga pemulihan selesai.</t>
+  </si>
+  <si>
+    <t>PROSES BAGI ADUAN TEKANAN RENDAH &amp; TIADA AIR</t>
+  </si>
+  <si>
+    <t>Field Service App</t>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN PAIP PECAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krew perlu tulis No. Meter di ruangan komen dalam Arahan Kerja Site Verification. </t>
+  </si>
+  <si>
+    <t>Berdasarkan No. Meter tersebut, pihak CX wilayah akan kenalpasti &amp; lengkapkan ruangan No. Account dalam kes tersebut. Kemudian pihak CX Wilayah akan ubah status kes dari "Escalate to FSM" menjadi "Escalate to CCS".</t>
+  </si>
+  <si>
+    <t>Sila rujuk SOP atau garispanduan pihak CBS.</t>
+  </si>
+  <si>
+    <t>Krew perlu menerangkan kepada pengadu mengnai punca masalah &amp; tindakan pembetulan yang perlu dilakukan pihak pengadu.</t>
+  </si>
+  <si>
+    <t>Rujuk SOP pihak NCF</t>
+  </si>
+  <si>
+    <t>PROSES C1</t>
+  </si>
+  <si>
     <t>PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP</t>
+  </si>
+  <si>
+    <t>PROSES C2</t>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN TETIANG METER</t>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN PENURAPAN JALAN &amp; KERJA KEMASAN</t>
+  </si>
+  <si>
+    <t>Kes disebabkan pihak lain menyebabkan kerosakan kepada jalan dan kemasan. Kes disebabkan pihak kontraktor Air Selangor, kontraktor berkenaan perlu dilantik semula untuk pembaikan.</t>
+  </si>
+  <si>
+    <t>Operator Pam</t>
+  </si>
+  <si>
+    <t>Pihak AOF</t>
+  </si>
+  <si>
+    <t>Pengadu kebiasaannya ialah pihak AOF.</t>
+  </si>
+  <si>
+    <t>Rujuk SOP Unit Mekanikal &amp; Elektrikal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kelulusan dan perincian arahan pengawalan injap diperoleh daripada Associate &amp; Juruteknik </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network Maintenance Function.</t>
+    </r>
+  </si>
+  <si>
+    <t>Juruteknik Network Maintenance Function Unit</t>
+  </si>
+  <si>
+    <t>Semakan kolam dan rumah pam yang disyaki bermasalah.</t>
+  </si>
+  <si>
+    <t>Contoh Kerosakan pada meter: Meter bocor, Meter faulty</t>
+  </si>
+  <si>
+    <t>Pengenalpastian jenis kerosakan secara terperinci.</t>
+  </si>
+  <si>
+    <t>Kerosakan infrastruktur adalah seperti masalah terkait bangunan seperti pintu rosak.
+ Kerosakan Mekanikal / Elektrikal adalah terkait masalah peralatan dan aset operasi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Operation Function Unit (Dispatcher) </t>
+  </si>
+  <si>
+    <t>Berdasarkan semakan pada "Case Origin" dan "Description" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
   </si>
   <si>
     <r>
@@ -607,6 +525,9 @@
     </r>
   </si>
   <si>
+    <t>Kontraktor / Krew</t>
+  </si>
+  <si>
     <r>
       <t>Dispatcher mengagihkan (</t>
     </r>
@@ -634,108 +555,13 @@
     </r>
   </si>
   <si>
-    <t>Kerja Pembaikan / Pengesahan Tapak</t>
-  </si>
-  <si>
-    <t>Kontraktor / Krew</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Proses kerja pembaikan dilaksanakan oleh krew (jika pembaikan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inhouse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) atau kontraktor (jika dilantik).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancelled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> atau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>PROSES BAGI ADUAN TEKANAN RENDAH &amp; TIADA AIR</t>
-  </si>
-  <si>
-    <t>Field Service App</t>
+    <t>Sila rujuk Carta Alir PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP</t>
   </si>
   <si>
     <t>Semasa pengesahan tapak, krew perlu mengenalpasti samada aduan adalah sahih.</t>
   </si>
   <si>
     <t>Jika lebih dari 1 premis terjejas, sila rujuk Carta Alir C1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contoh masalah sebelum meter: Meter Stand patah, paip tersumbat.
-Contoh masalah selepas meter: Paip bocor, masalah penapis air. </t>
-  </si>
-  <si>
-    <t>Bersemuka/Panggilan Telefon</t>
-  </si>
-  <si>
-    <t>Krew perlu menerangkan kepada pengadu mengnai punca masalah &amp; tindakan pembetulan yang perlu dilakukan pihak pengadu.</t>
-  </si>
-  <si>
-    <t>Sila rujuk Carta Alir PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP</t>
   </si>
   <si>
     <r>
@@ -752,104 +578,6 @@
       </rPr>
       <t>Action By Inhouse, Case Closed, Status Completed.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Krew perlu tulis No. Meter di ruangan komen dalam Arahan Kerja Site Verification. </t>
-  </si>
-  <si>
-    <t>CX Wilayah</t>
-  </si>
-  <si>
-    <t>Berdasarkan No. Meter tersebut, pihak CX wilayah akan kenalpasti &amp; lengkapkan ruangan No. Account dalam kes tersebut. Kemudian pihak CX Wilayah akan ubah status kes dari "Escalate to FSM" menjadi "Escalate to CCS".</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
-    <t>Customer Cloud Service</t>
-  </si>
-  <si>
-    <t>Sila rujuk SOP atau garispanduan pihak CBS.</t>
-  </si>
-  <si>
-    <r>
-      <t>Dispatcher mengagihkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dispatch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) Arahan Kerja.
- Sebaik sahaja mendapat Arahan Kerja Pembaikan, kontraktor akan memulakan kerja pembaikan dengan segera.</t>
-    </r>
-  </si>
-  <si>
-    <t>Krew/Kontraktor</t>
-  </si>
-  <si>
-    <t>Maklumat dan gambar-gambar kerja pembaikan dimuat naik dalam sistem Salesforce</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cancelled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">atau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed </t>
-    </r>
-  </si>
-  <si>
-    <t>PROSES C1</t>
   </si>
   <si>
     <r>
@@ -910,13 +638,7 @@
     </r>
   </si>
   <si>
-    <t>Rujuk SOP pihak NCF</t>
-  </si>
-  <si>
     <t>Krew perlu menyerahkan kes tersebut kepada pihak AOF.</t>
-  </si>
-  <si>
-    <t>Rujuk Carta Alir C2</t>
   </si>
   <si>
     <r>
@@ -949,125 +671,6 @@
 Jika Paip Bocor ditemui, sila rujuk PROSES BAGI KERJA PEMBAIKAN PAIP BOCOR, MASALAH INJAP, MASALAH PILI BOMBA, MASALAH KEBUK INJAP.</t>
   </si>
   <si>
-    <t>PROSES C2</t>
-  </si>
-  <si>
-    <t>Operator Pam</t>
-  </si>
-  <si>
-    <t>Semakan kolam dan rumah pam yang disyaki bermasalah.</t>
-  </si>
-  <si>
-    <t>Pemakluman secara manual
-Akan datang akan menggunakan Field Service App</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed </t>
-    </r>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN PENURAPAN JALAN &amp; KERJA KEMASAN</t>
-  </si>
-  <si>
-    <t>Orang Awam / Kakitangan</t>
-  </si>
-  <si>
-    <t>Berdasarkan semakan pada "Case Origin" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
-  </si>
-  <si>
-    <t>Kes disebabkan pihak lain menyebabkan kerosakan kepada jalan dan kemasan. Kes disebabkan pihak kontraktor Air Selangor, kontraktor berkenaan perlu dilantik semula untuk pembaikan.</t>
-  </si>
-  <si>
-    <r>
-      <t>Sistem secara automatik menjadualkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>schedule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) Arahan Kerja. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dispatcher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>akan mengagihkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dispatch) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arahan Kerja tersubut.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sebaik sahaja mendapat Arahan kerja kontraktor akan memulakan kerja pembaikan dengan segera.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Krew perlu membatalkan Arahan Kerja dalam </t>
     </r>
@@ -1082,31 +685,6 @@
       </rPr>
       <t>Field Service Application.</t>
     </r>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN TETIANG METER</t>
-  </si>
-  <si>
-    <t>Berdasarkan semakan pada "Case Origin" dan "Description" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
-  </si>
-  <si>
-    <t>Contoh Kerosakan pada meter: Meter bocor, Meter faulty</t>
-  </si>
-  <si>
-    <t>Krew / Kontraktor</t>
-  </si>
-  <si>
-    <t>PROSES BAGI KERJA PEMBAIKAN MASALAH RUMAH PAM &amp; MASALAH KOLAM</t>
-  </si>
-  <si>
-    <t>Pengadu kebiasaannya ialah pihak AOF.</t>
-  </si>
-  <si>
-    <t>Pengenalpastian jenis kerosakan secara terperinci.</t>
-  </si>
-  <si>
-    <t>Kerosakan infrastruktur adalah seperti masalah terkait bangunan seperti pintu rosak.
- Kerosakan Mekanikal / Elektrikal adalah terkait masalah peralatan dan aset operasi.</t>
   </si>
   <si>
     <r>
@@ -1156,47 +734,16 @@
     </r>
   </si>
   <si>
-    <t>Rujuk SOP Unit Mekanikal &amp; Elektrikal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Operation Function Unit (Dispatcher) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Operator Pam perlu membatalkan Arahan Kerja dalam </t>
-    </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Field Service Application.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kontraktor / Operator Pam</t>
-  </si>
-  <si>
-    <t>PROSES PERJALANAN KES BAGI PENGESAHAN TAPAK DAN KERJA PEMBAIKAN MENGGUNAKAN SISTEM SALESFORCE, FIELD SERVICE APP</t>
-  </si>
-  <si>
-    <r>
-      <t>Arahan Kerja Pengesahan Tapak dihasilkan dan diagihkan (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>created and dispatched</t>
+      <t>Kerja Pembaikan</t>
     </r>
     <r>
       <rPr>
@@ -1206,18 +753,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">) selepas Dispatcher menilai </t>
+      <t xml:space="preserve"> oleh </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Case Origin </t>
+      <t>kontraktor</t>
     </r>
     <r>
       <rPr>
@@ -1227,18 +774,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">dan </t>
+      <t xml:space="preserve"> bergantung kepada </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Description</t>
+      <t>sub-kategori kes yang memerlukan khidmat kontraktor</t>
     </r>
     <r>
       <rPr>
@@ -1248,11 +795,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> aduan.</t>
+      <t xml:space="preserve">. Untuk </t>
     </r>
-  </si>
-  <si>
-    <t>Krew mempunyai beberapa pilihan setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perincian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mengikut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub-kategori kes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, sila rujuk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carta alir berkaitan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>Kerosakan memerlukan tindakan seksyen lain: Billing, Enforcement, Water Quality, Meter, Credit Control, Asset Operation, Mechanical &amp; Electrical, Network Controller Function, NRW, Others (please specify)</t>
@@ -1261,13 +868,13 @@
     <t>Dilakukan jika aduan pengadu disalurkan kepada wilayah Air Selangor yang salah. Setelah dilakukan, Salesforce secara automatik memindahkan aduan itu kepada wilayah yang dipilih dan wilayah tersebut bertanggungjawab menguruskan aduan itu segera.</t>
   </si>
   <si>
-    <t>Krew perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
-  </si>
-  <si>
     <t>Krew menolak Arahan Kerja kerana: Halangan di tapak, Pengesahan perlu dilakukan pada waktu lain, Tukar Zon, Tamat Waktu Kerja, Cuti Kecemasan, Cuti Sakit, Tiada kerjasama daripada pengadu/pemilik premis, Pengadu gagal dihubungi, Tidak dibenarkan melakukan pengesahan tapak, Tekanan bekalan air normal, Alamat/No. telefon pengadu salah/tidak lengkap.</t>
   </si>
   <si>
     <t>Krew membatalkan Arahan Kerja kerana: Masalah dalaman, Telah diselesaikan pengadu, Aduan tak sahih, Bekalan air telah pulih, Dalam proses pemulihan, Bukan air terawat, Gangguan bekalan air berjadual, Pembaikan paip pecah/bocor, Bawah tanggungjawab pemaju/JMB, Dalam tempoh DLP, Masalah loji/rumah pam.</t>
+  </si>
+  <si>
+    <t>Krew perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
   </si>
   <si>
     <r>
@@ -1296,11 +903,54 @@
     </r>
   </si>
   <si>
+    <t>Krew mempunyai beberapa pilihan setelah Arahan Kerja Pengesahan Tapak diagihkan.</t>
+  </si>
+  <si>
     <t>Krew mempunyai beberapa pilihan setelah tiba di tapak.</t>
   </si>
   <si>
+    <t>Krew  menjalankan proses pengesahan tapak.</t>
+  </si>
+  <si>
+    <t>Kontraktor perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pembaikan diagihkan.</t>
+  </si>
+  <si>
+    <t>Kontraktor perlu tiba di tapak selewatnya 60 minit. 
+Kontraktor mempunyai beberapa pilihan setelah tiba di tapak.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Setiba di tapak, krew boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salesforce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> akan agihkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatch</t>
     </r>
     <r>
       <rPr>
@@ -1311,7 +961,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Change Section / Change Region / Decline / Cancel </t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -1321,19 +971,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Arahan Kerja tersebut. 
-Jika tiada, krew memilih pilihan </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Valid</t>
+      <t xml:space="preserve">Arahan Kerja Pembaikan kepada kontraktor dilantik setelah maklumat Pihak Berkuasa Tempatan diisi </t>
     </r>
     <r>
       <rPr>
@@ -1343,11 +992,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> bagi Arahan Kerja Pengesahan Tapak tersebut.</t>
+      <t>dalam ruangan sistem Salesforce.</t>
     </r>
   </si>
   <si>
-    <t>Krew  menjalankan proses pengesahan tapak.</t>
+    <t>Kontraktor mempunyai beberapa pilihan setelah Arahan Kerja Pembaikan diagihkan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontraktor menolak Arahan Kerja kerana: Tamat waktu kerja, Cuti Kecemasan, Cuti Sakit, Halangan di tapak, Kerja pembaikan perlu dilakukan pada waktu lain, Tiada kerjasama pegadu/pemilik premis, Tidak dibenarkan melakukan kerja pembaikan, Lokasi tepat paip pecah/bocor tak ditemui. </t>
+  </si>
+  <si>
+    <t>Kontraktor membatalkan Arahan Kerja kerana: Masalah dalaman (kerosakan selepas meter), Kerja pembaikan dilakukan kontraktor lain/pihak ketiga, Bukan air terawat.</t>
   </si>
   <si>
     <r>
@@ -1496,19 +1151,19 @@
     </r>
   </si>
   <si>
-    <t>Arahan Kerja ditutup selepas krew memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">Setiba di tapak, krew boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Salesforce</t>
+      <t xml:space="preserve">Change Section / Change Region / Decline / Cancel </t>
     </r>
     <r>
       <rPr>
@@ -1518,11 +1173,143 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> akan agihkan (</t>
+      <t xml:space="preserve">Arahan Kerja tersebut. 
+Jika tiada, krew memilih pilihan </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bagi Arahan Kerja Pengesahan Tapak tersebut.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Setiba di tapak, kontraktor boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Decline / Cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Arahan Kerja tersebut. 
+Jika tiada, kontraktor memilih pilihan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bagi Arahan Kerja Pembaikan tersebut.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kontraktor perlu mengisi status Arahan Kerja Pembaikan sebagai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sebaik sahaja kerja pembaikan selesai.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proses kerja pembaikan dilaksanakan oleh krew (jika pembaikan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inhouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) atau kontraktor (jika dilantik).</t>
+    </r>
+  </si>
+  <si>
+    <t>CX Wilayah</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <r>
+      <t>Dispatcher mengagihkan (</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1534,6 +1321,97 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Arahan Kerja.
+ Sebaik sahaja mendapat Arahan Kerja Pembaikan, kontraktor akan memulakan kerja pembaikan dengan segera.</t>
+    </r>
+  </si>
+  <si>
+    <t>Krew/Kontraktor</t>
+  </si>
+  <si>
+    <t>Bersemuka/Panggilan Telefon</t>
+  </si>
+  <si>
+    <t>Customer Cloud Service</t>
+  </si>
+  <si>
+    <t>Pemakluman secara manual
+Akan datang akan menggunakan Field Service App</t>
+  </si>
+  <si>
+    <t>Berdasarkan semakan pada "Case Origin" aduan, Dispatcher akan membuat pilihan jenis arahan kerja yang diperlukan.</t>
+  </si>
+  <si>
+    <t>JENIS ARAHAN KERJA</t>
+  </si>
+  <si>
+    <t>Pengesahan Tapak</t>
+  </si>
+  <si>
+    <t>Kerja Pembaikan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancelled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">atau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed </t>
+    </r>
+  </si>
+  <si>
+    <t>Kes ditutup oleh sistem secara automatik dan pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arahan Kerja yang ditutup berstatus Cancelled atau Completed </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1541,7 +1419,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t>Cancelled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> atau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
     </r>
     <r>
       <rPr>
@@ -1553,27 +1452,128 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Sistem secara automatik menjadualkan (</t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Arahan Kerja Pembaikan kepada kontraktor dilantik setelah maklumat Pihak Berkuasa Tempatan diisi </t>
+      <t>schedule</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dalam ruangan sistem Salesforce.</t>
+      <t xml:space="preserve">) Arahan Kerja. </t>
     </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dispatcher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>akan mengagihkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dispatch) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arahan Kerja tersubut.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistem secara automatik menjadualkan (schedule) Arahan Kerja. Dispatcher akan mengagihkan (dispatch) Arahan Kerja tersubut.</t>
+  </si>
+  <si>
+    <t>Kontraktor / Operator Pam</t>
+  </si>
+  <si>
+    <t>PROSES MENGIKUT KATEGORI ADUAN</t>
+  </si>
+  <si>
+    <t>Kerja Pembaikan / Pengesahan Tapak</t>
+  </si>
+  <si>
+    <t>Rujuk Carta Alir C2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Arahan Kerja yang ditutup berstatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed </t>
+    </r>
+  </si>
+  <si>
+    <t>Krew / Kontraktor</t>
+  </si>
+  <si>
+    <t>PROSES PERJALANAN KES BAGI PENGESAHAN TAPAK DAN KERJA PEMBAIKAN MENGGUNAKAN SISTEM SALESFORCE, FIELD SERVICE APP</t>
+  </si>
+  <si>
+    <t>Kes ditutup oleh sistem Salesforce secara automatik.
+Pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
+  </si>
+  <si>
+    <t>Arahan Kerja ditutup selepas kontraktor memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
+  </si>
+  <si>
+    <t>Arahan Kerja ditutup selepas krew memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
   </si>
   <si>
     <t>Sistem secara automatik hasilkan Arahan Kerja Pembaikan</t>
@@ -1661,231 +1661,6 @@
     </r>
   </si>
   <si>
-    <t>Kontraktor mempunyai beberapa pilihan setelah Arahan Kerja Pembaikan diagihkan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontraktor menolak Arahan Kerja kerana: Tamat waktu kerja, Cuti Kecemasan, Cuti Sakit, Halangan di tapak, Kerja pembaikan perlu dilakukan pada waktu lain, Tiada kerjasama pegadu/pemilik premis, Tidak dibenarkan melakukan kerja pembaikan, Lokasi tepat paip pecah/bocor tak ditemui. </t>
-  </si>
-  <si>
-    <t>Kontraktor perlu memulakan perjalanan ke tapak dalam tempoh  ≤ 5 minit setelah Arahan Kerja Pembaikan diagihkan.</t>
-  </si>
-  <si>
-    <t>Kontraktor membatalkan Arahan Kerja kerana: Masalah dalaman (kerosakan selepas meter), Kerja pembaikan dilakukan kontraktor lain/pihak ketiga, Bukan air terawat.</t>
-  </si>
-  <si>
-    <t>Kontraktor perlu tiba di tapak selewatnya 60 minit. 
-Kontraktor mempunyai beberapa pilihan setelah tiba di tapak.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Setiba di tapak, kontraktor boleh memilih pilihan tertera di Field Service App jika mendapati ada keperluan untuk </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Decline / Cancel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Arahan Kerja tersebut. 
-Jika tiada, kontraktor memilih pilihan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bagi Arahan Kerja Pembaikan tersebut.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kerja Pembaikan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> oleh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kontraktor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bergantung kepada </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sub-kategori kes yang memerlukan khidmat kontraktor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Untuk </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>perincian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mengikut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sub-kategori kes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, sila rujuk </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>carta alir berkaitan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kontraktor perlu mengisi status Arahan Kerja Pembaikan sebagai </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sebaik sahaja kerja pembaikan selesai.</t>
-    </r>
-  </si>
-  <si>
-    <t>Arahan Kerja ditutup selepas kontraktor memuat naik maklumat  dan gambar-gambar kerja pembaikan.</t>
-  </si>
-  <si>
-    <t>Kes ditutup oleh sistem Salesforce secara automatik.
-Pengadu menerima pemakluman kes selesai melalui pesanan SMS.</t>
-  </si>
-  <si>
     <t>BIL</t>
   </si>
   <si>
@@ -1898,31 +1673,25 @@
     <t>Halangan di tapak (Obstacle on site)</t>
   </si>
   <si>
-    <t>WSF perlu menghasilkan arahan kerja baru</t>
-  </si>
-  <si>
     <t>Pengesahan perlu dilakukan pada waktu lain</t>
   </si>
   <si>
-    <t>Tukar Zon</t>
+    <t>Tamat waktu kerja</t>
+  </si>
+  <si>
+    <t>Cuti Kecemasan</t>
   </si>
   <si>
     <t>Tamat Waktu Kerja</t>
   </si>
   <si>
-    <t>FSM secara automatik akan menghasilkan Arahan Kerja baharu</t>
-  </si>
-  <si>
-    <t>Cuti Kecemasan</t>
+    <t>Tukar Zon</t>
   </si>
   <si>
     <t>Cuti Sakit</t>
   </si>
   <si>
     <t>Tiada kerjasama daripada pengadu / pemilik premis</t>
-  </si>
-  <si>
-    <t>WSF perlu memajukan senarai kes kepada Pengurus Teknikal untuk tindakan lanjut pihak Pengurus Teknikal</t>
   </si>
   <si>
     <t>Pengadu gagal dihubungi</t>
@@ -1937,10 +1706,16 @@
     <t>Alamat / no. telefon pengadu salah / tidak lengkap</t>
   </si>
   <si>
-    <t>Masalah dalaman</t>
+    <t>WSF perlu menghasilkan arahan kerja baru</t>
   </si>
   <si>
-    <t>FSM secara automatik akan menutup aduan</t>
+    <t>FSM secara automatik akan menghasilkan Arahan Kerja baharu</t>
+  </si>
+  <si>
+    <t>WSF perlu memajukan senarai kes kepada Pengurus Teknikal untuk tindakan lanjut pihak Pengurus Teknikal</t>
+  </si>
+  <si>
+    <t>Masalah dalaman</t>
   </si>
   <si>
     <t>Telah diselesaikan oleh pengadu</t>
@@ -1964,22 +1739,25 @@
     <t>Pembaikan paip pecah / bocor</t>
   </si>
   <si>
-    <t>WSF perlu melakukan Parent &amp; Child</t>
+    <t>Di bawah tanggungjawab pemaju / JMB</t>
   </si>
   <si>
-    <t>Di bawah tanggungjawab pemaju / JMB</t>
+    <t>Dalam tempoh Defect Liability Period</t>
+  </si>
+  <si>
+    <t>Masalah pada loji rawatan air / rumah pam - sila rujuk apps air</t>
+  </si>
+  <si>
+    <t>FSM secara automatik akan menutup aduan</t>
+  </si>
+  <si>
+    <t>WSF perlu melakukan Parent &amp; Child</t>
   </si>
   <si>
     <t>CX wilayah perlu memaklumkan pengadu dan menutup aduan</t>
   </si>
   <si>
-    <t>Dalam tempoh Defect Liability Period</t>
-  </si>
-  <si>
     <t>WSF perlu hasilkan Arahan Kerja DLP dan agihkan kepada kontraktor berkenaan</t>
-  </si>
-  <si>
-    <t>Masalah pada loji rawatan air / rumah pam - sila rujuk apps air</t>
   </si>
   <si>
     <t>WSF perlu tutup aduan selepas isu telah diselesaikan</t>
@@ -2057,25 +1835,22 @@
     <t>TINDAKAN LANJUT</t>
   </si>
   <si>
-    <t>Tamat waktu kerja</t>
+    <t>Halangan di tapak</t>
+  </si>
+  <si>
+    <t>Kerja pembaikan perlu dilakukan pada waktu lain</t>
+  </si>
+  <si>
+    <t>Tidak dibenarkan melakukan kerja pembaikan</t>
   </si>
   <si>
     <t>FSM secara automatik hasilkan Arahan Kerja Baharu</t>
   </si>
   <si>
-    <t>Halangan di tapak</t>
-  </si>
-  <si>
     <t>Pihak WSF perlu hasilkan Arahan Kerja baharu</t>
   </si>
   <si>
-    <t>Kerja pembaikan perlu dilakukan pada waktu lain</t>
-  </si>
-  <si>
     <t>Pihak WSF perlu majukan aduan kepada Pengurus Teknikal untuk tindakan lanjut</t>
-  </si>
-  <si>
-    <t>Tidak dibenarkan melakukan kerja pembaikan</t>
   </si>
   <si>
     <t>Lokasi tepat paip pecah / bocor tidak ditemui</t>
@@ -2093,13 +1868,238 @@
     <t>Masalah dalaman / kerosakan selepas meter</t>
   </si>
   <si>
+    <t>Kerja pembaikan dilakukan kontraktor lain / pihak ketiga</t>
+  </si>
+  <si>
     <t>Sistem secara automatik menutup (closed) aduan</t>
   </si>
   <si>
-    <t>Kerja pembaikan dilakukan kontraktor lain / pihak ketiga</t>
+    <r>
+      <t>Arahan Kerja Pengesahan Tapak dihasilkan dan diagihkan (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>created and dispatched</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) selepas Dispatcher menilai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Case Origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aduan.</t>
+    </r>
   </si>
   <si>
-    <t>PROSES MENGIKUT KATEGORI ADUAN</t>
+    <t xml:space="preserve">Contoh masalah sebelum meter: Meter Stand patah, paip tersumbat.
+Contoh masalah selepas meter: Paip bocor, masalah penapis air. </t>
+  </si>
+  <si>
+    <t>Maklumat dan gambar-gambar kerja pembaikan dimuat naik dalam sistem Salesforce</t>
+  </si>
+  <si>
+    <t>PROSES BAGI KERJA PEMBAIKAN MASALAH RUMAH PAM &amp; MASALAH KOLAM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operator Pam perlu membatalkan Arahan Kerja dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Field Service Application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Berdasarkan semakan pada "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" dan "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" aduan, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dispatcher </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">akan membuat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pilihan jenis arahan kerja </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yang diperlukan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aduan LI/LS yang memerlukan Pengesahan Tapak oleh krew, sila rujuk Azlan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semasa kerja pembaikan, kawalan injap diperlukan bagi mengurangkan tekanan air didalam paip yang pecah atau penutupan bekalan. Pihak kontraktor akan membuat permohonan kepada </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Associate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wilayah di tapak. Associate berkenaan perlu majukan permohonan kepada Associate NMF wilayah.</t>
+    </r>
   </si>
   <si>
     <t>CARTA ALIR KERJA</t>
@@ -2112,16 +2112,16 @@
     <t>Kerja -kerja Pembaikan di tapak</t>
   </si>
   <si>
+    <t>Tuntutan Kerja oleh pihak Kontraktor</t>
+  </si>
+  <si>
     <t>Rujukan Carta Alir</t>
   </si>
   <si>
-    <t>Tuntutan Kerja oleh pihak Kontraktor</t>
+    <t>Orang Awam / Kakitangan</t>
   </si>
   <si>
-    <t>Pihak AOF, Orang Awam</t>
-  </si>
-  <si>
-    <t>TAMBAH ERP</t>
+    <t>TAMBAH ERP POSSIBILITIES</t>
   </si>
 </sst>
 </file>
@@ -3354,13 +3354,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3394,33 +3421,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3491,7 +3491,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8037,8 +8039,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12650257" y="3278423"/>
-          <a:ext cx="3356011" cy="3117389"/>
+          <a:off x="12653166" y="3271921"/>
+          <a:ext cx="3356011" cy="3124062"/>
           <a:chOff x="2341835" y="3332329"/>
           <a:chExt cx="3356011" cy="3400433"/>
         </a:xfrm>
@@ -8400,8 +8402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4146095" y="3232931"/>
-          <a:ext cx="7220030" cy="2880051"/>
+          <a:off x="4153453" y="3226429"/>
+          <a:ext cx="7215581" cy="2886724"/>
           <a:chOff x="6577608" y="3332329"/>
           <a:chExt cx="7801056" cy="3266223"/>
         </a:xfrm>
@@ -8966,13 +8968,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>3708004</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>461385</xdr:rowOff>
+      <xdr:rowOff>628296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5085047</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>948212</xdr:rowOff>
+      <xdr:rowOff>1115123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8987,7 +8989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11787292" y="6860097"/>
+          <a:off x="11799718" y="8233782"/>
           <a:ext cx="1377043" cy="486827"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -9027,15 +9029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1851065</xdr:colOff>
+      <xdr:colOff>1770144</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>336239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2512168</xdr:colOff>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2431247</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>937242</xdr:rowOff>
+      <xdr:rowOff>909165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9050,7 +9052,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4491969" y="6734951"/>
+          <a:off x="4420286" y="6700870"/>
           <a:ext cx="661103" cy="601003"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -9085,6 +9087,993 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467582</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1128685</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F65970A-A30D-4BBC-87C8-C38600324E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6469175" y="6700870"/>
+          <a:ext cx="661103" cy="601003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>435838</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1096941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E57A903-4E03-4D04-934B-8565881E72D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524502" y="6700870"/>
+          <a:ext cx="661103" cy="601003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2372566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3033669</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5574C37-E7E9-4175-B9C8-65B02619A976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10461230" y="6700870"/>
+          <a:ext cx="661103" cy="601003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4878626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5539729</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A52AC52-752B-42C7-93E6-D73143947EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12967290" y="6700870"/>
+          <a:ext cx="661103" cy="601003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6960333</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7621436</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A2991F-AB3D-4C22-9733-C32B4B984B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15048997" y="6700870"/>
+          <a:ext cx="661103" cy="601003"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2094844</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1416874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2100696</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DE35F3-08E8-AEE1-1BB9-A4CC0DDE5C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="129" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4744986" y="5921440"/>
+          <a:ext cx="5852" cy="779430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>798134</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1603612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>798290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4EED31-4F5D-4AAF-B5E8-83CF21F93D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6799727" y="6108178"/>
+          <a:ext cx="156" cy="592692"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>766116</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1491482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>766390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9A2AC8-E92D-4CD1-AF61-B4C12B9DF5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854780" y="5996048"/>
+          <a:ext cx="274" cy="704822"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2697184</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1541184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2703118</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0846D6-BDD8-448F-9B35-17DE4DB69894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10785848" y="6045750"/>
+          <a:ext cx="5934" cy="655120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5204607</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1886442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5209178</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9CC15F-30B8-45F9-9ED6-6BB2DF465E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13293271" y="6391008"/>
+          <a:ext cx="4571" cy="309862"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7290885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1886442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7293342</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA008A5-84FE-413A-922E-D9C5E01161B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15379549" y="6391008"/>
+          <a:ext cx="2457" cy="309862"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2100696</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4396526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Connector: Elbow 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA53101-DAD3-245F-4CF8-AD4E4542AFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="4"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8149731" y="3895272"/>
+          <a:ext cx="938331" cy="7738687"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>798134</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4396526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connector: Elbow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57137893-FF6F-7B86-87B6-62CB34777201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9174850" y="4920391"/>
+          <a:ext cx="938331" cy="5688449"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>766391</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4396527</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connector: Elbow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBA1BFC-BA2B-0D58-468B-C60687C76701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10204007" y="5949548"/>
+          <a:ext cx="938331" cy="3630136"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2703119</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4396527</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connector: Elbow 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231BBF54-ADA9-4251-1434-BFF2C428FC6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11172371" y="6917912"/>
+          <a:ext cx="938331" cy="1693408"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4396527</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5209179</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Connector: Elbow 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4011446F-DF1D-22FF-110B-C12E1CABB246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="4"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12425401" y="7358290"/>
+          <a:ext cx="938331" cy="812652"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4396527</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>909165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7290886</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628296</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connector: Elbow 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EDEBA1-75DB-4E42-0FCF-A2E966C4EB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13466255" y="6317437"/>
+          <a:ext cx="938331" cy="2894359"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15900,6 +16889,9 @@
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -15923,7 +16915,11 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>C2</a:t>
           </a:r>
         </a:p>
@@ -23857,7 +24853,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2544843" y="1115858"/>
+          <a:off x="2527458" y="1125932"/>
           <a:ext cx="1379575" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -24003,7 +24999,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2756165" y="12104212"/>
+          <a:off x="2738780" y="14174773"/>
           <a:ext cx="956931" cy="433856"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -24242,7 +25238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619461" y="15877349"/>
+          <a:off x="2602076" y="17000853"/>
           <a:ext cx="1230339" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -24362,7 +25358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2655687" y="12948161"/>
+          <a:off x="2638302" y="15015797"/>
           <a:ext cx="1157886" cy="577463"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -24489,7 +25485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2279374" y="4339686"/>
+          <a:off x="2261989" y="3039087"/>
           <a:ext cx="1910513" cy="1005194"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -24857,7 +25853,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2366215" y="5834545"/>
+          <a:off x="2348830" y="7918753"/>
           <a:ext cx="1736830" cy="893562"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -25707,7 +26703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2706515" y="14930650"/>
+          <a:off x="2689130" y="16045542"/>
           <a:ext cx="1056231" cy="525780"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -30764,6 +31760,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31079,15 +32079,15 @@
   </sheetPr>
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
@@ -31095,43 +32095,43 @@
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -31143,49 +32143,49 @@
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
       <c r="G4" s="85" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="171">
+      <c r="B5" s="180">
         <v>2</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="172"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="168" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="168" t="s">
-        <v>12</v>
+      <c r="I5" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="177" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="171"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="173"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="182"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="163"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="2:10" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
@@ -31196,16 +32196,16 @@
       <c r="E7" s="50"/>
       <c r="F7" s="25"/>
       <c r="G7" s="95" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -31217,16 +32217,16 @@
       <c r="E8" s="36"/>
       <c r="F8" s="10"/>
       <c r="G8" s="23" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31238,14 +32238,14 @@
       <c r="E9" s="51"/>
       <c r="F9" s="25"/>
       <c r="G9" s="23" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I9" s="22"/>
-      <c r="J9" s="162" t="s">
-        <v>20</v>
+      <c r="J9" s="163" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -31257,15 +32257,15 @@
       <c r="E10" s="52"/>
       <c r="F10" s="10"/>
       <c r="G10" s="23" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="177"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
@@ -31276,16 +32276,16 @@
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
       <c r="G11" s="97" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31297,20 +32297,20 @@
       <c r="E12" s="15"/>
       <c r="F12" s="47"/>
       <c r="G12" s="94" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171">
+    <row r="13" spans="2:10" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="180">
         <v>9</v>
       </c>
       <c r="C13" s="31"/>
@@ -31318,35 +32318,35 @@
       <c r="E13" s="49"/>
       <c r="F13" s="53"/>
       <c r="G13" s="98" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="171"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="38"/>
       <c r="D14" s="36"/>
       <c r="E14" s="41"/>
       <c r="F14" s="47"/>
       <c r="G14" s="97" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31358,16 +32358,16 @@
       <c r="E15" s="41"/>
       <c r="F15" s="47"/>
       <c r="G15" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="177" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="168" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="168" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="162" t="s">
-        <v>34</v>
+      <c r="J15" s="163" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -31379,13 +32379,13 @@
       <c r="E16" s="54"/>
       <c r="F16" s="47"/>
       <c r="G16" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="163"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
+        <v>106</v>
+      </c>
+      <c r="H16" s="172"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
-    <row r="17" spans="2:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>12</v>
       </c>
@@ -31394,16 +32394,16 @@
       <c r="E17" s="55"/>
       <c r="F17" s="10"/>
       <c r="G17" s="85" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31415,16 +32415,16 @@
       <c r="E18" s="42"/>
       <c r="F18" s="25"/>
       <c r="G18" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="164" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="H18" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="173" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -31436,11 +32436,11 @@
       <c r="E19" s="50"/>
       <c r="F19" s="25"/>
       <c r="G19" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="165"/>
+        <v>106</v>
+      </c>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="174"/>
     </row>
     <row r="20" spans="2:10" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
@@ -31451,16 +32451,16 @@
       <c r="E20" s="36"/>
       <c r="F20" s="48"/>
       <c r="G20" s="99" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -31472,16 +32472,16 @@
       <c r="E21" s="141"/>
       <c r="F21" s="142"/>
       <c r="G21" s="143" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H21" s="144" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I21" s="145" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J21" s="144" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -31493,16 +32493,16 @@
       <c r="E22" s="32"/>
       <c r="F22" s="10"/>
       <c r="G22" s="96" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31514,48 +32514,44 @@
       <c r="E23" s="17"/>
       <c r="F23" s="33"/>
       <c r="G23" s="101" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="B24" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="H18:H19"/>
@@ -31572,6 +32568,10 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="B24:J24"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31599,13 +32599,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="130" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -31613,10 +32613,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D3" s="199" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -31624,7 +32624,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D4" s="199"/>
     </row>
@@ -31633,7 +32633,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="199"/>
     </row>
@@ -31642,10 +32642,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -31653,7 +32653,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D7" s="199"/>
     </row>
@@ -31662,7 +32662,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D8" s="199"/>
     </row>
@@ -31671,10 +32671,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="199" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="199" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -31682,7 +32682,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D10" s="199"/>
     </row>
@@ -31691,7 +32691,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D11" s="199"/>
     </row>
@@ -31700,7 +32700,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D12" s="199"/>
     </row>
@@ -31709,7 +32709,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="121" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D13" s="199"/>
     </row>
@@ -31743,13 +32743,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="129" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="129" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -31757,10 +32757,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -31768,7 +32768,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D4" s="201"/>
     </row>
@@ -31777,7 +32777,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D5" s="201"/>
     </row>
@@ -31786,7 +32786,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="201"/>
     </row>
@@ -31795,7 +32795,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7" s="201"/>
     </row>
@@ -31804,7 +32804,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D8" s="201"/>
     </row>
@@ -31813,7 +32813,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D9" s="202"/>
     </row>
@@ -31822,43 +32822,43 @@
         <v>8</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="128">
         <v>9</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="128">
         <v>10</v>
       </c>
       <c r="C12" s="128" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="128">
         <v>11</v>
       </c>
       <c r="C13" s="128" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -31888,10 +32888,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="134" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -31899,7 +32899,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -31907,7 +32907,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -31915,7 +32915,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -31923,7 +32923,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -31931,7 +32931,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -31939,7 +32939,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -31947,7 +32947,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="133" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -31955,7 +32955,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="133" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -31963,7 +32963,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="133" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -31971,7 +32971,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -31996,15 +32996,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="129" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="129" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -32012,7 +33012,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -32020,7 +33020,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -32028,7 +33028,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -32036,7 +33036,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -32044,7 +33044,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -32052,7 +33052,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -32060,7 +33060,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -32068,7 +33068,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -32076,7 +33076,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -32084,7 +33084,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="128" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -32092,7 +33092,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="128" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -32120,13 +33120,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="129" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="129" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -32134,10 +33134,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="D3" s="199" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -32145,7 +33145,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D4" s="199"/>
     </row>
@@ -32154,7 +33154,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D5" s="199"/>
     </row>
@@ -32163,10 +33163,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32174,7 +33174,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D7" s="199"/>
     </row>
@@ -32183,10 +33183,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D8" s="199" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32194,7 +33194,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D9" s="199"/>
     </row>
@@ -32203,10 +33203,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -32239,35 +33239,35 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="122" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D2" s="122" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="122"/>
       <c r="C3" s="122" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="122"/>
       <c r="C4" s="122" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D4" s="201"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="122"/>
       <c r="C5" s="122" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D5" s="202"/>
     </row>
@@ -32286,8 +33286,8 @@
   </sheetPr>
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="73" zoomScaleNormal="85" zoomScaleSheetLayoutView="81" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="61" zoomScaleNormal="85" zoomScaleSheetLayoutView="81" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32297,35 +33297,35 @@
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="171.6640625" customWidth="1"/>
+    <col min="6" max="6" width="171.77734375" customWidth="1"/>
     <col min="7" max="7" width="44" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="165" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="178" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -32339,7 +33339,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="53"/>
       <c r="G4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -32349,8 +33349,8 @@
       <c r="C5" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
       <c r="F5" s="192"/>
       <c r="G5" s="61"/>
     </row>
@@ -32364,7 +33364,7 @@
       <c r="F6" s="53"/>
       <c r="G6" s="61"/>
     </row>
-    <row r="7" spans="2:7" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="148">
         <v>4</v>
       </c>
@@ -32377,7 +33377,7 @@
     <row r="8" spans="2:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="148"/>
       <c r="C8" s="149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -32389,20 +33389,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="188"/>
       <c r="E9" s="189"/>
       <c r="F9" s="190"/>
       <c r="G9" s="91"/>
     </row>
-    <row r="10" spans="2:7" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="63">
         <v>6</v>
       </c>
       <c r="C10" s="85"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
       <c r="F10" s="192"/>
       <c r="G10" s="61"/>
     </row>
@@ -32425,20 +33425,20 @@
       <c r="G12" s="81"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -32466,7 +33466,7 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="81" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="81" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
@@ -32474,48 +33474,48 @@
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
     </row>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -32526,47 +33526,47 @@
       <c r="D4" s="40"/>
       <c r="E4" s="15"/>
       <c r="F4" s="117" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G4" s="112" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="183">
         <v>2</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="181" t="s">
+      <c r="C5" s="161"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="168" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="185" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="168" t="s">
-        <v>47</v>
+      <c r="H5" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="177" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="184"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="182"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="186"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="163"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="172"/>
     </row>
     <row r="7" spans="2:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="76">
@@ -32576,10 +33576,10 @@
       <c r="D7" s="40"/>
       <c r="E7" s="60"/>
       <c r="F7" s="23" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G7" s="113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="57"/>
@@ -32592,16 +33592,16 @@
       <c r="D8" s="8"/>
       <c r="E8" s="50"/>
       <c r="F8" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G8" s="95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -32612,16 +33612,16 @@
       <c r="D9" s="8"/>
       <c r="E9" s="36"/>
       <c r="F9" s="69" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="G9" s="114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32632,16 +33632,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="51"/>
       <c r="F10" s="23" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="G10" s="115" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -32652,16 +33652,16 @@
       <c r="D11" s="8"/>
       <c r="E11" s="50"/>
       <c r="F11" s="24" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32672,37 +33672,37 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="118" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G12" s="116" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -32733,7 +33733,7 @@
   </sheetPr>
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="41" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="41" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -32742,8 +33742,8 @@
     <col min="2" max="2" width="5.109375" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="75" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" style="75" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" style="70" customWidth="1"/>
@@ -32751,39 +33751,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -32795,16 +33795,16 @@
       <c r="E4" s="40"/>
       <c r="F4" s="15"/>
       <c r="G4" s="117" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="123" customHeight="1" x14ac:dyDescent="0.3">
@@ -32816,13 +33816,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="52"/>
       <c r="G5" s="23" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J5" s="87"/>
     </row>
@@ -32835,19 +33835,19 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="44" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="63">
         <v>3</v>
       </c>
@@ -32856,16 +33856,16 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="44" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -32877,16 +33877,16 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="23" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -32898,16 +33898,16 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="J9" s="86" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -32919,14 +33919,14 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="117" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="83" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -32938,16 +33938,16 @@
       <c r="E11" s="78"/>
       <c r="F11" s="13"/>
       <c r="G11" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -32959,16 +33959,16 @@
       <c r="E12" s="78"/>
       <c r="F12" s="13"/>
       <c r="G12" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -32980,19 +33980,19 @@
       <c r="E13" s="78"/>
       <c r="F13" s="13"/>
       <c r="G13" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J13" s="90" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63">
         <v>10</v>
       </c>
@@ -33001,19 +34001,19 @@
       <c r="E14" s="78"/>
       <c r="F14" s="13"/>
       <c r="G14" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="J14" s="89" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63">
         <v>11</v>
       </c>
@@ -33022,15 +34022,15 @@
       <c r="E15" s="78"/>
       <c r="F15" s="13"/>
       <c r="G15" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="61"/>
     </row>
-    <row r="16" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63">
         <v>12</v>
       </c>
@@ -33039,15 +34039,15 @@
       <c r="E16" s="78"/>
       <c r="F16" s="13"/>
       <c r="G16" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="61"/>
     </row>
-    <row r="17" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63">
         <v>13</v>
       </c>
@@ -33056,17 +34056,17 @@
       <c r="E17" s="78"/>
       <c r="F17" s="13"/>
       <c r="G17" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="63">
         <v>14</v>
       </c>
@@ -33075,19 +34075,19 @@
       <c r="E18" s="78"/>
       <c r="F18" s="13"/>
       <c r="G18" s="57" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63">
         <v>15</v>
       </c>
@@ -33096,35 +34096,35 @@
       <c r="E19" s="78"/>
       <c r="F19" s="13"/>
       <c r="G19" s="57" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H19" s="80" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
       <c r="C20" s="77"/>
       <c r="D20" s="13"/>
       <c r="E20" s="78"/>
       <c r="F20" s="13"/>
       <c r="G20" s="57" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J20" s="57" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="120" customHeight="1" x14ac:dyDescent="0.3">
@@ -33136,16 +34136,16 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="23" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J21" s="103" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
@@ -33157,16 +34157,16 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="118" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H22" s="88" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -33204,7 +34204,7 @@
   </sheetPr>
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="75" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -33213,54 +34213,54 @@
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" customWidth="1"/>
     <col min="7" max="7" width="26.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="2:11" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -33270,16 +34270,16 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="57" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33292,19 +34292,19 @@
       <c r="F5" s="55"/>
       <c r="G5" s="32"/>
       <c r="H5" s="44" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K5" s="83" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="63">
         <v>3</v>
       </c>
@@ -33314,16 +34314,16 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="44" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -33336,19 +34336,19 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="44" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="63"/>
       <c r="C8" s="77"/>
       <c r="D8" s="8"/>
@@ -33359,10 +34359,10 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="63">
         <v>5</v>
       </c>
@@ -33372,17 +34372,17 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="44" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="2:11" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="150">
         <v>6</v>
       </c>
@@ -33392,16 +34392,16 @@
       <c r="F10" s="141"/>
       <c r="G10" s="141"/>
       <c r="H10" s="152" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I10" s="153" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" s="153" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K10" s="154" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
@@ -33412,16 +34412,16 @@
       <c r="F11" s="141"/>
       <c r="G11" s="141"/>
       <c r="H11" s="152" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I11" s="153" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="153" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K11" s="154" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33436,7 +34436,7 @@
       <c r="J12" s="158"/>
       <c r="K12" s="159"/>
     </row>
-    <row r="13" spans="2:11" ht="103.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="103.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63">
         <v>7</v>
       </c>
@@ -33482,18 +34482,18 @@
   </sheetPr>
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="58" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="57" zoomScaleNormal="71" zoomScaleSheetLayoutView="108" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" customWidth="1"/>
     <col min="6" max="6" width="33.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" style="70" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
@@ -33501,44 +34501,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="2:11" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -33548,16 +34548,16 @@
       <c r="F4" s="15"/>
       <c r="G4" s="5"/>
       <c r="H4" s="85" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33570,19 +34570,19 @@
       <c r="F5" s="32"/>
       <c r="G5" s="37"/>
       <c r="H5" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="63">
         <v>3</v>
       </c>
@@ -33592,16 +34592,16 @@
       <c r="F6" s="8"/>
       <c r="G6" s="47"/>
       <c r="H6" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -33614,16 +34614,16 @@
       <c r="F7" s="8"/>
       <c r="G7" s="47"/>
       <c r="H7" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -33636,16 +34636,16 @@
       <c r="F8" s="8"/>
       <c r="G8" s="47"/>
       <c r="H8" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" s="64" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33658,19 +34658,19 @@
       <c r="F9" s="8"/>
       <c r="G9" s="47"/>
       <c r="H9" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="150">
         <v>7</v>
       </c>
@@ -33680,16 +34680,16 @@
       <c r="F10" s="141"/>
       <c r="G10" s="155"/>
       <c r="H10" s="156" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I10" s="153" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" s="153" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K10" s="153" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33702,16 +34702,16 @@
       <c r="F11" s="8"/>
       <c r="G11" s="47"/>
       <c r="H11" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -33724,16 +34724,16 @@
       <c r="F12" s="8"/>
       <c r="G12" s="47"/>
       <c r="H12" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33746,16 +34746,16 @@
       <c r="F13" s="8"/>
       <c r="G13" s="47"/>
       <c r="H13" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33768,16 +34768,16 @@
       <c r="F14" s="8"/>
       <c r="G14" s="47"/>
       <c r="H14" s="123" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K14" s="103" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33790,16 +34790,16 @@
       <c r="F15" s="8"/>
       <c r="G15" s="47"/>
       <c r="H15" s="97" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -33834,57 +34834,57 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -33896,16 +34896,16 @@
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
       <c r="G4" s="85" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -33913,34 +34913,34 @@
         <v>2</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="172"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="168" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="168" t="s">
-        <v>86</v>
+      <c r="I5" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="177" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="184"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="173"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="182"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="163"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="172"/>
     </row>
-    <row r="7" spans="2:10" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="76">
         <v>3</v>
       </c>
@@ -33949,16 +34949,16 @@
       <c r="E7" s="78"/>
       <c r="F7" s="53"/>
       <c r="G7" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -33970,16 +34970,16 @@
       <c r="E8" s="68"/>
       <c r="F8" s="25"/>
       <c r="G8" s="95" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -33991,16 +34991,16 @@
       <c r="E9" s="36"/>
       <c r="F9" s="10"/>
       <c r="G9" s="124" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J9" s="111" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34012,16 +35012,16 @@
       <c r="E10" s="51"/>
       <c r="F10" s="25"/>
       <c r="G10" s="114" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34033,16 +35033,16 @@
       <c r="E11" s="52"/>
       <c r="F11" s="25"/>
       <c r="G11" s="114" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34054,16 +35054,16 @@
       <c r="E12" s="36"/>
       <c r="F12" s="10"/>
       <c r="G12" s="124" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34075,39 +35075,39 @@
       <c r="E13" s="17"/>
       <c r="F13" s="33"/>
       <c r="G13" s="101" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -34146,50 +35146,50 @@
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -34201,49 +35201,49 @@
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
       <c r="G4" s="125" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="171">
+      <c r="B5" s="180">
         <v>2</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="172"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="191"/>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="168" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="168" t="s">
-        <v>92</v>
+      <c r="I5" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="177" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="171"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="173"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="182"/>
       <c r="F6" s="192"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="163"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
@@ -34254,16 +35254,16 @@
       <c r="E7" s="60"/>
       <c r="F7" s="47"/>
       <c r="G7" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34275,16 +35275,16 @@
       <c r="E8" s="60"/>
       <c r="F8" s="47"/>
       <c r="G8" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H8" s="74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34296,16 +35296,16 @@
       <c r="E9" s="60"/>
       <c r="F9" s="47"/>
       <c r="G9" s="113" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J9" s="90" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34317,16 +35317,16 @@
       <c r="E10" s="60"/>
       <c r="F10" s="5"/>
       <c r="G10" s="125" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="J10" s="90" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34338,16 +35338,16 @@
       <c r="E11" s="50"/>
       <c r="F11" s="25"/>
       <c r="G11" s="95" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -34359,16 +35359,16 @@
       <c r="E12" s="36"/>
       <c r="F12" s="10"/>
       <c r="G12" s="124" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34380,16 +35380,16 @@
       <c r="E13" s="51"/>
       <c r="F13" s="25"/>
       <c r="G13" s="114" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -34401,16 +35401,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="10"/>
       <c r="G14" s="23" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34422,16 +35422,16 @@
       <c r="E15" s="36"/>
       <c r="F15" s="72"/>
       <c r="G15" s="124" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34443,39 +35443,39 @@
       <c r="E16" s="17"/>
       <c r="F16" s="33"/>
       <c r="G16" s="116" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="174"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -34505,67 +35505,64 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="67" zoomScaleNormal="67" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+    <row r="2" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="171" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="206" t="s">
-        <v>210</v>
-      </c>
     </row>
-    <row r="4" spans="2:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -34574,19 +35571,22 @@
       <c r="E4" s="15"/>
       <c r="F4" s="5"/>
       <c r="G4" s="125" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>96</v>
+        <v>52</v>
+      </c>
+      <c r="L4" s="206" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="76">
         <v>2</v>
       </c>
@@ -34595,19 +35595,19 @@
       <c r="E5" s="79"/>
       <c r="F5" s="47"/>
       <c r="G5" s="114" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="76">
         <v>3</v>
       </c>
@@ -34616,19 +35616,19 @@
       <c r="E6" s="78"/>
       <c r="F6" s="53"/>
       <c r="G6" s="114" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -34637,19 +35637,19 @@
       <c r="E7" s="78"/>
       <c r="F7" s="48"/>
       <c r="G7" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -34658,19 +35658,19 @@
       <c r="E8" s="78"/>
       <c r="F8" s="48"/>
       <c r="G8" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -34679,19 +35679,19 @@
       <c r="E9" s="78"/>
       <c r="F9" s="48"/>
       <c r="G9" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -34700,19 +35700,19 @@
       <c r="E10" s="68"/>
       <c r="F10" s="25"/>
       <c r="G10" s="114" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -34721,19 +35721,19 @@
       <c r="E11" s="36"/>
       <c r="F11" s="10"/>
       <c r="G11" s="23" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -34742,19 +35742,19 @@
       <c r="E12" s="51"/>
       <c r="F12" s="25"/>
       <c r="G12" s="23" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -34763,19 +35763,19 @@
       <c r="E13" s="50"/>
       <c r="F13" s="25"/>
       <c r="G13" s="115" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -34784,19 +35784,19 @@
       <c r="E14" s="50"/>
       <c r="F14" s="25"/>
       <c r="G14" s="115" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J14" s="59" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -34805,39 +35805,39 @@
       <c r="E15" s="17"/>
       <c r="F15" s="33"/>
       <c r="G15" s="116" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -34872,49 +35872,49 @@
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
     <col min="10" max="10" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="171" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+    </row>
+    <row r="3" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="178" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -34923,16 +35923,16 @@
       <c r="E4" s="40"/>
       <c r="F4" s="53"/>
       <c r="G4" s="113" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -34944,16 +35944,16 @@
       <c r="E5" s="40"/>
       <c r="F5" s="53"/>
       <c r="G5" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34965,16 +35965,16 @@
       <c r="E6" s="40"/>
       <c r="F6" s="53"/>
       <c r="G6" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -34986,19 +35986,19 @@
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
       <c r="G7" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -35007,16 +36007,16 @@
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
       <c r="G8" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J8" s="67" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -35028,19 +36028,19 @@
       <c r="E9" s="46"/>
       <c r="F9" s="47"/>
       <c r="G9" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -35049,19 +36049,19 @@
       <c r="E10" s="46"/>
       <c r="F10" s="47"/>
       <c r="G10" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -35070,16 +36070,16 @@
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
       <c r="G11" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -35091,16 +36091,16 @@
       <c r="E12" s="40"/>
       <c r="F12" s="53"/>
       <c r="G12" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -35112,16 +36112,16 @@
       <c r="E13" s="46"/>
       <c r="F13" s="47"/>
       <c r="G13" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -35133,19 +36133,19 @@
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
       <c r="G14" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -35154,13 +36154,13 @@
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
       <c r="G15" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J15" s="194"/>
     </row>
@@ -35173,13 +36173,13 @@
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
       <c r="G16" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J16" s="194"/>
     </row>
@@ -35192,13 +36192,13 @@
       <c r="E17" s="46"/>
       <c r="F17" s="47"/>
       <c r="G17" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J17" s="194"/>
     </row>
@@ -35211,13 +36211,13 @@
       <c r="E18" s="40"/>
       <c r="F18" s="53"/>
       <c r="G18" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J18" s="195"/>
     </row>
@@ -35230,19 +36230,19 @@
       <c r="E19" s="46"/>
       <c r="F19" s="53"/>
       <c r="G19" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>19</v>
       </c>
@@ -35251,16 +36251,16 @@
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
       <c r="G20" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -35270,16 +36270,16 @@
       <c r="E21" s="46"/>
       <c r="F21" s="53"/>
       <c r="G21" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -35291,16 +36291,16 @@
       <c r="E22" s="46"/>
       <c r="F22" s="53"/>
       <c r="G22" s="113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H22" s="80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -35310,16 +36310,16 @@
       <c r="E23" s="46"/>
       <c r="F23" s="53"/>
       <c r="G23" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H23" s="80" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J23" s="126" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K23" s="127"/>
     </row>
@@ -35330,14 +36330,14 @@
       <c r="E24" s="46"/>
       <c r="F24" s="53"/>
       <c r="G24" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H24" s="80"/>
       <c r="I24" s="22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K24" s="127"/>
     </row>
@@ -35350,19 +36350,19 @@
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
       <c r="G25" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>22</v>
       </c>
@@ -35371,16 +36371,16 @@
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
       <c r="G26" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H26" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I26" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -35392,16 +36392,16 @@
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
       <c r="G27" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H27" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -35413,16 +36413,16 @@
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
       <c r="G28" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H28" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I28" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -35434,16 +36434,16 @@
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
       <c r="G29" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -35455,16 +36455,16 @@
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
       <c r="G30" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I30" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J30" s="193" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -35476,13 +36476,13 @@
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
       <c r="G31" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H31" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I31" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J31" s="194"/>
     </row>
@@ -35495,13 +36495,13 @@
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
       <c r="G32" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J32" s="195"/>
     </row>
@@ -35514,19 +36514,19 @@
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
       <c r="G33" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>30</v>
       </c>
@@ -35535,16 +36535,16 @@
       <c r="E34" s="46"/>
       <c r="F34" s="47"/>
       <c r="G34" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -35556,16 +36556,16 @@
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
       <c r="G35" s="113" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I35" s="109" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -35577,16 +36577,16 @@
       <c r="E36" s="106"/>
       <c r="F36" s="107"/>
       <c r="G36" s="131" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H36" s="108" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I36" s="109" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J36" s="110" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -35615,12 +36615,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0d8786a3-f31d-4156-b834-30d20662e8dd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35845,17 +36844,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0d8786a3-f31d-4156-b834-30d20662e8dd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2D9E18-6149-4505-B8C5-64E519963E88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1500130A-BF64-4ABE-A6EA-14EBA4DEED02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="293e914e-8d63-4d97-b97a-363761b87379"/>
+    <ds:schemaRef ds:uri="0d8786a3-f31d-4156-b834-30d20662e8dd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35880,11 +36889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1500130A-BF64-4ABE-A6EA-14EBA4DEED02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2D9E18-6149-4505-B8C5-64E519963E88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d8786a3-f31d-4156-b834-30d20662e8dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
